--- a/documentation/analysis/register-usage.xlsx
+++ b/documentation/analysis/register-usage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flo/Dropbox/Universität/TUM Informatik BSc/2 - SoSe 20/d - ERA-GP/eragp-dbt-2020/documentation/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D818A4-4AB1-2E47-8AB3-3CFE50B0832D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33EEE19-429A-AD4B-AA7A-E0EA37F92325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-920" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{8B9EF475-8898-9C47-AB7D-0478C27091BF}"/>
+    <workbookView xWindow="33600" yWindow="-920" windowWidth="38400" windowHeight="21140" xr2:uid="{8B9EF475-8898-9C47-AB7D-0478C27091BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,6 +282,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -667,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -867,6 +870,96 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,95 +1002,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,18 +1041,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,8 +1366,8 @@
   </sheetPr>
   <dimension ref="A1:AY116"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:U3"/>
+    <sheetView tabSelected="1" topLeftCell="AD28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ36" sqref="AJ36:AS74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1432,41 +1441,41 @@
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="114"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
       <c r="P4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="112" t="s">
+      <c r="Q4" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="113"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="113"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113"/>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="113"/>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="113"/>
-      <c r="AD4" s="114"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="89"/>
       <c r="AE4" s="13" t="s">
         <v>36</v>
       </c>
@@ -1475,65 +1484,65 @@
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118" t="s">
+      <c r="G5" s="85"/>
+      <c r="H5" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118" t="s">
+      <c r="I5" s="85"/>
+      <c r="J5" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118" t="s">
+      <c r="K5" s="85"/>
+      <c r="L5" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="119"/>
-      <c r="N5" s="115" t="s">
+      <c r="M5" s="104"/>
+      <c r="N5" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="116"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="117" t="s">
+      <c r="Q5" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118" t="s">
+      <c r="R5" s="85"/>
+      <c r="S5" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118" t="s">
+      <c r="T5" s="85"/>
+      <c r="U5" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118" t="s">
+      <c r="V5" s="85"/>
+      <c r="W5" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="118" t="s">
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="118" t="s">
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="AB5" s="118"/>
-      <c r="AC5" s="118" t="s">
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="AD5" s="116"/>
+      <c r="AD5" s="86"/>
       <c r="AE5" s="14" t="s">
         <v>1</v>
       </c>
@@ -1542,67 +1551,67 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="102">
+      <c r="B6" s="113">
         <v>20034</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="106">
+      <c r="C6" s="110"/>
+      <c r="D6" s="112">
         <v>28893</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="103">
+      <c r="E6" s="112"/>
+      <c r="F6" s="110">
         <v>560759</v>
       </c>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103">
+      <c r="G6" s="110"/>
+      <c r="H6" s="110">
         <v>24893</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103">
+      <c r="I6" s="110"/>
+      <c r="J6" s="110">
         <v>131149</v>
       </c>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103">
+      <c r="K6" s="110"/>
+      <c r="L6" s="110">
         <v>28214</v>
       </c>
-      <c r="M6" s="109"/>
-      <c r="N6" s="122">
+      <c r="M6" s="111"/>
+      <c r="N6" s="106">
         <f>SUM(B6:L6)</f>
         <v>793942</v>
       </c>
-      <c r="O6" s="123"/>
+      <c r="O6" s="107"/>
       <c r="P6" s="19" t="s">
         <v>4</v>
       </c>
       <c r="Q6" s="100">
         <v>4475899</v>
       </c>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101">
+      <c r="R6" s="94"/>
+      <c r="S6" s="94">
         <v>3764391237</v>
       </c>
-      <c r="T6" s="101"/>
-      <c r="U6" s="107">
+      <c r="T6" s="94"/>
+      <c r="U6" s="98">
         <v>2667856</v>
       </c>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107">
+      <c r="V6" s="98"/>
+      <c r="W6" s="98">
         <v>4655533339</v>
       </c>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="101">
+      <c r="X6" s="98"/>
+      <c r="Y6" s="94">
         <v>2253566075</v>
       </c>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="101">
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94">
         <v>4617948989</v>
       </c>
-      <c r="AB6" s="101"/>
-      <c r="AC6" s="101">
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94">
         <f>SUM(Q6:AB6)</f>
         <v>15298583395</v>
       </c>
-      <c r="AD6" s="121"/>
+      <c r="AD6" s="95"/>
       <c r="AE6" s="15" t="s">
         <v>4</v>
       </c>
@@ -1614,64 +1623,64 @@
       <c r="B7" s="100">
         <v>5832</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="107">
+      <c r="C7" s="94"/>
+      <c r="D7" s="98">
         <v>8182</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107">
+      <c r="E7" s="98"/>
+      <c r="F7" s="98">
         <v>362655</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="101">
+      <c r="G7" s="98"/>
+      <c r="H7" s="94">
         <v>6614</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101">
+      <c r="I7" s="94"/>
+      <c r="J7" s="94">
         <v>129527</v>
       </c>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101">
+      <c r="K7" s="94"/>
+      <c r="L7" s="94">
         <v>7473</v>
       </c>
-      <c r="M7" s="110"/>
-      <c r="N7" s="120">
+      <c r="M7" s="108"/>
+      <c r="N7" s="102">
         <f t="shared" ref="N7:N37" si="0">SUM(B7:L7)</f>
         <v>520283</v>
       </c>
-      <c r="O7" s="121"/>
+      <c r="O7" s="95"/>
       <c r="P7" s="19" t="s">
         <v>5</v>
       </c>
       <c r="Q7" s="100">
         <v>3091181</v>
       </c>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101">
+      <c r="R7" s="94"/>
+      <c r="S7" s="94">
         <v>1089697558</v>
       </c>
-      <c r="T7" s="101"/>
-      <c r="U7" s="107">
+      <c r="T7" s="94"/>
+      <c r="U7" s="98">
         <v>1302509</v>
       </c>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107">
+      <c r="V7" s="98"/>
+      <c r="W7" s="98">
         <v>1433275269</v>
       </c>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="101">
+      <c r="X7" s="98"/>
+      <c r="Y7" s="94">
         <v>1449301801</v>
       </c>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="101">
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94">
         <v>2595580782</v>
       </c>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="101">
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94">
         <f t="shared" ref="AC7:AC37" si="1">SUM(Q7:AB7)</f>
         <v>6572249100</v>
       </c>
-      <c r="AD7" s="121"/>
+      <c r="AD7" s="95"/>
       <c r="AE7" s="15" t="s">
         <v>5</v>
       </c>
@@ -1683,64 +1692,64 @@
       <c r="B8" s="100">
         <v>13359</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="107">
+      <c r="C8" s="94"/>
+      <c r="D8" s="98">
         <v>17019</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107">
+      <c r="E8" s="98"/>
+      <c r="F8" s="98">
         <v>288180</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="101">
+      <c r="G8" s="98"/>
+      <c r="H8" s="94">
         <v>15256</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101">
+      <c r="I8" s="94"/>
+      <c r="J8" s="94">
         <v>168528</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101">
+      <c r="K8" s="94"/>
+      <c r="L8" s="94">
         <v>17580</v>
       </c>
-      <c r="M8" s="110"/>
-      <c r="N8" s="120">
+      <c r="M8" s="108"/>
+      <c r="N8" s="102">
         <f t="shared" si="0"/>
         <v>519922</v>
       </c>
-      <c r="O8" s="121"/>
+      <c r="O8" s="95"/>
       <c r="P8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="Q8" s="100">
         <v>6437556</v>
       </c>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101">
+      <c r="R8" s="94"/>
+      <c r="S8" s="94">
         <v>3075114960</v>
       </c>
-      <c r="T8" s="101"/>
-      <c r="U8" s="107">
+      <c r="T8" s="94"/>
+      <c r="U8" s="98">
         <v>3524710</v>
       </c>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107">
+      <c r="V8" s="98"/>
+      <c r="W8" s="98">
         <v>612594837</v>
       </c>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="101">
+      <c r="X8" s="98"/>
+      <c r="Y8" s="94">
         <v>3208313247</v>
       </c>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101">
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94">
         <v>5135770202</v>
       </c>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101">
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94">
         <f t="shared" si="1"/>
         <v>12041755512</v>
       </c>
-      <c r="AD8" s="121"/>
+      <c r="AD8" s="95"/>
       <c r="AE8" s="15" t="s">
         <v>6</v>
       </c>
@@ -1752,64 +1761,64 @@
       <c r="B9" s="100">
         <v>997</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="107">
+      <c r="C9" s="94"/>
+      <c r="D9" s="98">
         <v>3</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107">
+      <c r="E9" s="98"/>
+      <c r="F9" s="98">
         <v>5353</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="101">
+      <c r="G9" s="98"/>
+      <c r="H9" s="94">
         <v>1108</v>
       </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101">
+      <c r="I9" s="94"/>
+      <c r="J9" s="94">
         <v>4808</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101">
+      <c r="K9" s="94"/>
+      <c r="L9" s="94">
         <v>1329</v>
       </c>
-      <c r="M9" s="110"/>
-      <c r="N9" s="120">
+      <c r="M9" s="108"/>
+      <c r="N9" s="102">
         <f t="shared" si="0"/>
         <v>13598</v>
       </c>
-      <c r="O9" s="121"/>
+      <c r="O9" s="95"/>
       <c r="P9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="Q9" s="100">
         <v>18171</v>
       </c>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101">
+      <c r="R9" s="94"/>
+      <c r="S9" s="94">
         <v>2</v>
       </c>
-      <c r="T9" s="101"/>
-      <c r="U9" s="107">
+      <c r="T9" s="94"/>
+      <c r="U9" s="98">
         <v>63299</v>
       </c>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107">
+      <c r="V9" s="98"/>
+      <c r="W9" s="98">
         <v>1634553</v>
       </c>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="101">
+      <c r="X9" s="98"/>
+      <c r="Y9" s="94">
         <v>122141943</v>
       </c>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101">
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94">
         <v>805824664</v>
       </c>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101">
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94">
         <f t="shared" si="1"/>
         <v>929682632</v>
       </c>
-      <c r="AD9" s="121"/>
+      <c r="AD9" s="95"/>
       <c r="AE9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1821,64 +1830,64 @@
       <c r="B10" s="100">
         <v>374</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="107">
+      <c r="C10" s="94"/>
+      <c r="D10" s="98">
         <v>535</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107">
+      <c r="E10" s="98"/>
+      <c r="F10" s="98">
         <v>511</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="101">
+      <c r="G10" s="98"/>
+      <c r="H10" s="94">
         <v>476</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101">
+      <c r="I10" s="94"/>
+      <c r="J10" s="94">
         <v>726</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101">
+      <c r="K10" s="94"/>
+      <c r="L10" s="94">
         <v>490</v>
       </c>
-      <c r="M10" s="110"/>
-      <c r="N10" s="120">
+      <c r="M10" s="108"/>
+      <c r="N10" s="102">
         <f t="shared" si="0"/>
         <v>3112</v>
       </c>
-      <c r="O10" s="121"/>
+      <c r="O10" s="95"/>
       <c r="P10" s="19" t="s">
         <v>8</v>
       </c>
       <c r="Q10" s="100">
         <v>9038</v>
       </c>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101">
+      <c r="R10" s="94"/>
+      <c r="S10" s="94">
         <v>5358</v>
       </c>
-      <c r="T10" s="101"/>
-      <c r="U10" s="107">
+      <c r="T10" s="94"/>
+      <c r="U10" s="98">
         <v>19660</v>
       </c>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107">
+      <c r="V10" s="98"/>
+      <c r="W10" s="98">
         <v>1450785</v>
       </c>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="101">
+      <c r="X10" s="98"/>
+      <c r="Y10" s="94">
         <v>69482177</v>
       </c>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="101">
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94">
         <v>1886</v>
       </c>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="101">
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94">
         <f t="shared" si="1"/>
         <v>70968904</v>
       </c>
-      <c r="AD10" s="121"/>
+      <c r="AD10" s="95"/>
       <c r="AE10" s="15" t="s">
         <v>8</v>
       </c>
@@ -1890,64 +1899,64 @@
       <c r="B11" s="100">
         <v>205</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="107">
+      <c r="C11" s="94"/>
+      <c r="D11" s="98">
         <v>319</v>
       </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107">
+      <c r="E11" s="98"/>
+      <c r="F11" s="98">
         <v>1952</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="101">
+      <c r="G11" s="98"/>
+      <c r="H11" s="94">
         <v>317</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101">
+      <c r="I11" s="94"/>
+      <c r="J11" s="94">
         <v>612</v>
       </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101">
+      <c r="K11" s="94"/>
+      <c r="L11" s="94">
         <v>402</v>
       </c>
-      <c r="M11" s="110"/>
-      <c r="N11" s="120">
+      <c r="M11" s="108"/>
+      <c r="N11" s="102">
         <f t="shared" si="0"/>
         <v>3807</v>
       </c>
-      <c r="O11" s="121"/>
+      <c r="O11" s="95"/>
       <c r="P11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="Q11" s="100">
         <v>16750</v>
       </c>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101">
+      <c r="R11" s="94"/>
+      <c r="S11" s="94">
         <v>12</v>
       </c>
-      <c r="T11" s="101"/>
-      <c r="U11" s="107">
+      <c r="T11" s="94"/>
+      <c r="U11" s="98">
         <v>59607</v>
       </c>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107">
+      <c r="V11" s="98"/>
+      <c r="W11" s="98">
         <v>1296734873</v>
       </c>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="101">
+      <c r="X11" s="98"/>
+      <c r="Y11" s="94">
         <v>6869180</v>
       </c>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="101">
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94">
         <v>265287553</v>
       </c>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="101">
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94">
         <f t="shared" si="1"/>
         <v>1568967975</v>
       </c>
-      <c r="AD11" s="121"/>
+      <c r="AD11" s="95"/>
       <c r="AE11" s="15" t="s">
         <v>9</v>
       </c>
@@ -1959,64 +1968,64 @@
       <c r="B12" s="100">
         <v>1190</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="107">
+      <c r="C12" s="94"/>
+      <c r="D12" s="98">
         <v>1549</v>
       </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107">
+      <c r="E12" s="98"/>
+      <c r="F12" s="98">
         <v>14236</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="101">
+      <c r="G12" s="98"/>
+      <c r="H12" s="94">
         <v>1570</v>
       </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101">
+      <c r="I12" s="94"/>
+      <c r="J12" s="94">
         <v>11551</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101">
+      <c r="K12" s="94"/>
+      <c r="L12" s="94">
         <v>1919</v>
       </c>
-      <c r="M12" s="110"/>
-      <c r="N12" s="120">
+      <c r="M12" s="108"/>
+      <c r="N12" s="102">
         <f t="shared" si="0"/>
         <v>32015</v>
       </c>
-      <c r="O12" s="121"/>
+      <c r="O12" s="95"/>
       <c r="P12" s="19" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="100">
         <v>112897</v>
       </c>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101">
+      <c r="R12" s="94"/>
+      <c r="S12" s="94">
         <v>90</v>
       </c>
-      <c r="T12" s="101"/>
-      <c r="U12" s="107">
+      <c r="T12" s="94"/>
+      <c r="U12" s="98">
         <v>111626</v>
       </c>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107">
+      <c r="V12" s="98"/>
+      <c r="W12" s="98">
         <v>2039293039</v>
       </c>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="101">
+      <c r="X12" s="98"/>
+      <c r="Y12" s="94">
         <v>192875537</v>
       </c>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="101">
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94">
         <v>798436994</v>
       </c>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="101">
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94">
         <f t="shared" si="1"/>
         <v>3030830183</v>
       </c>
-      <c r="AD12" s="121"/>
+      <c r="AD12" s="95"/>
       <c r="AE12" s="15" t="s">
         <v>10</v>
       </c>
@@ -2028,64 +2037,64 @@
       <c r="B13" s="100">
         <v>220</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="107">
+      <c r="C13" s="94"/>
+      <c r="D13" s="98">
         <v>236</v>
       </c>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107">
+      <c r="E13" s="98"/>
+      <c r="F13" s="98">
         <v>1616</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="101">
+      <c r="G13" s="98"/>
+      <c r="H13" s="94">
         <v>251</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101">
+      <c r="I13" s="94"/>
+      <c r="J13" s="94">
         <v>577</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101">
+      <c r="K13" s="94"/>
+      <c r="L13" s="94">
         <v>376</v>
       </c>
-      <c r="M13" s="110"/>
-      <c r="N13" s="120">
+      <c r="M13" s="108"/>
+      <c r="N13" s="102">
         <f t="shared" si="0"/>
         <v>3276</v>
       </c>
-      <c r="O13" s="121"/>
+      <c r="O13" s="95"/>
       <c r="P13" s="19" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="100">
         <v>26129</v>
       </c>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101">
+      <c r="R13" s="94"/>
+      <c r="S13" s="94">
         <v>19</v>
       </c>
-      <c r="T13" s="101"/>
-      <c r="U13" s="107">
+      <c r="T13" s="94"/>
+      <c r="U13" s="98">
         <v>25107</v>
       </c>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107">
+      <c r="V13" s="98"/>
+      <c r="W13" s="98">
         <v>13514095</v>
       </c>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="101">
+      <c r="X13" s="98"/>
+      <c r="Y13" s="94">
         <v>8659547</v>
       </c>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101">
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94">
         <v>127994898</v>
       </c>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101">
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94">
         <f t="shared" si="1"/>
         <v>150219795</v>
       </c>
-      <c r="AD13" s="121"/>
+      <c r="AD13" s="95"/>
       <c r="AE13" s="15" t="s">
         <v>11</v>
       </c>
@@ -2097,64 +2106,64 @@
       <c r="B14" s="100">
         <v>9624</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="107">
+      <c r="C14" s="94"/>
+      <c r="D14" s="98">
         <v>17533</v>
       </c>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107">
+      <c r="E14" s="98"/>
+      <c r="F14" s="98">
         <v>207513</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="101">
+      <c r="G14" s="98"/>
+      <c r="H14" s="94">
         <v>11809</v>
       </c>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101">
+      <c r="I14" s="94"/>
+      <c r="J14" s="94">
         <v>102921</v>
       </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101">
+      <c r="K14" s="94"/>
+      <c r="L14" s="94">
         <v>12982</v>
       </c>
-      <c r="M14" s="110"/>
-      <c r="N14" s="120">
+      <c r="M14" s="108"/>
+      <c r="N14" s="102">
         <f t="shared" si="0"/>
         <v>362382</v>
       </c>
-      <c r="O14" s="121"/>
+      <c r="O14" s="95"/>
       <c r="P14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="100">
         <v>50586780</v>
       </c>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101">
+      <c r="R14" s="94"/>
+      <c r="S14" s="94">
         <v>6770281431</v>
       </c>
-      <c r="T14" s="101"/>
-      <c r="U14" s="107">
+      <c r="T14" s="94"/>
+      <c r="U14" s="98">
         <v>1656653</v>
       </c>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107">
+      <c r="V14" s="98"/>
+      <c r="W14" s="98">
         <v>3335711878</v>
       </c>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="101">
+      <c r="X14" s="98"/>
+      <c r="Y14" s="94">
         <v>1502419851</v>
       </c>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101">
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94">
         <v>2321570646</v>
       </c>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101">
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94">
         <f t="shared" si="1"/>
         <v>13982227239</v>
       </c>
-      <c r="AD14" s="121"/>
+      <c r="AD14" s="95"/>
       <c r="AE14" s="15" t="s">
         <v>12</v>
       </c>
@@ -2166,64 +2175,64 @@
       <c r="B15" s="100">
         <v>5289</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="107">
+      <c r="C15" s="94"/>
+      <c r="D15" s="98">
         <v>7132</v>
       </c>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107">
+      <c r="E15" s="98"/>
+      <c r="F15" s="98">
         <v>158332</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="101">
+      <c r="G15" s="98"/>
+      <c r="H15" s="94">
         <v>6617</v>
       </c>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101">
+      <c r="I15" s="94"/>
+      <c r="J15" s="94">
         <v>63935</v>
       </c>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101">
+      <c r="K15" s="94"/>
+      <c r="L15" s="94">
         <v>7365</v>
       </c>
-      <c r="M15" s="110"/>
-      <c r="N15" s="120">
+      <c r="M15" s="108"/>
+      <c r="N15" s="102">
         <f t="shared" si="0"/>
         <v>248670</v>
       </c>
-      <c r="O15" s="121"/>
+      <c r="O15" s="95"/>
       <c r="P15" s="19" t="s">
         <v>13</v>
       </c>
       <c r="Q15" s="100">
         <v>496591</v>
       </c>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101">
+      <c r="R15" s="94"/>
+      <c r="S15" s="94">
         <v>3133091977</v>
       </c>
-      <c r="T15" s="101"/>
-      <c r="U15" s="107">
+      <c r="T15" s="94"/>
+      <c r="U15" s="98">
         <v>1158792</v>
       </c>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107">
+      <c r="V15" s="98"/>
+      <c r="W15" s="98">
         <v>945772455</v>
       </c>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="101">
+      <c r="X15" s="98"/>
+      <c r="Y15" s="94">
         <v>1008644888</v>
       </c>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101">
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94">
         <v>1684675964</v>
       </c>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101">
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94">
         <f t="shared" si="1"/>
         <v>6773840667</v>
       </c>
-      <c r="AD15" s="121"/>
+      <c r="AD15" s="95"/>
       <c r="AE15" s="15" t="s">
         <v>13</v>
       </c>
@@ -2235,64 +2244,64 @@
       <c r="B16" s="100">
         <v>13431</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="107">
+      <c r="C16" s="94"/>
+      <c r="D16" s="98">
         <v>17814</v>
       </c>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107">
+      <c r="E16" s="98"/>
+      <c r="F16" s="98">
         <v>371914</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="101">
+      <c r="G16" s="98"/>
+      <c r="H16" s="94">
         <v>15731</v>
       </c>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101">
+      <c r="I16" s="94"/>
+      <c r="J16" s="94">
         <v>158287</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101">
+      <c r="K16" s="94"/>
+      <c r="L16" s="94">
         <v>18899</v>
       </c>
-      <c r="M16" s="110"/>
-      <c r="N16" s="120">
+      <c r="M16" s="108"/>
+      <c r="N16" s="102">
         <f t="shared" si="0"/>
         <v>596076</v>
       </c>
-      <c r="O16" s="121"/>
+      <c r="O16" s="95"/>
       <c r="P16" s="19" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="100">
         <v>2339949</v>
       </c>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101">
+      <c r="R16" s="94"/>
+      <c r="S16" s="94">
         <v>1060568609</v>
       </c>
-      <c r="T16" s="101"/>
-      <c r="U16" s="107">
+      <c r="T16" s="94"/>
+      <c r="U16" s="98">
         <v>2218179</v>
       </c>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107">
+      <c r="V16" s="98"/>
+      <c r="W16" s="98">
         <v>3439794463</v>
       </c>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="101">
+      <c r="X16" s="98"/>
+      <c r="Y16" s="94">
         <v>2811488742</v>
       </c>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="101">
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94">
         <v>9384481829</v>
       </c>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101">
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94">
         <f t="shared" si="1"/>
         <v>16700891771</v>
       </c>
-      <c r="AD16" s="121"/>
+      <c r="AD16" s="95"/>
       <c r="AE16" s="15" t="s">
         <v>14</v>
       </c>
@@ -2304,64 +2313,64 @@
       <c r="B17" s="100">
         <v>6930</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="107">
+      <c r="C17" s="94"/>
+      <c r="D17" s="98">
         <v>9380</v>
       </c>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107">
+      <c r="E17" s="98"/>
+      <c r="F17" s="98">
         <v>178105</v>
       </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="101">
+      <c r="G17" s="98"/>
+      <c r="H17" s="94">
         <v>8693</v>
       </c>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101">
+      <c r="I17" s="94"/>
+      <c r="J17" s="94">
         <v>73509</v>
       </c>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101">
+      <c r="K17" s="94"/>
+      <c r="L17" s="94">
         <v>10088</v>
       </c>
-      <c r="M17" s="110"/>
-      <c r="N17" s="120">
+      <c r="M17" s="108"/>
+      <c r="N17" s="102">
         <f t="shared" si="0"/>
         <v>286705</v>
       </c>
-      <c r="O17" s="121"/>
+      <c r="O17" s="95"/>
       <c r="P17" s="19" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="100">
         <v>1845985</v>
       </c>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101">
+      <c r="R17" s="94"/>
+      <c r="S17" s="94">
         <v>401981231</v>
       </c>
-      <c r="T17" s="101"/>
-      <c r="U17" s="107">
+      <c r="T17" s="94"/>
+      <c r="U17" s="98">
         <v>1280316</v>
       </c>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107">
+      <c r="V17" s="98"/>
+      <c r="W17" s="98">
         <v>2211394593</v>
       </c>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="101">
+      <c r="X17" s="98"/>
+      <c r="Y17" s="94">
         <v>1414676469</v>
       </c>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101">
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="94">
         <v>2969795360</v>
       </c>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101">
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94">
         <f t="shared" si="1"/>
         <v>7000973954</v>
       </c>
-      <c r="AD17" s="121"/>
+      <c r="AD17" s="95"/>
       <c r="AE17" s="15" t="s">
         <v>15</v>
       </c>
@@ -2373,64 +2382,64 @@
       <c r="B18" s="100">
         <v>6918</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="107">
+      <c r="C18" s="94"/>
+      <c r="D18" s="98">
         <v>9339</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107">
+      <c r="E18" s="98"/>
+      <c r="F18" s="98">
         <v>157010</v>
       </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="101">
+      <c r="G18" s="98"/>
+      <c r="H18" s="94">
         <v>8806</v>
       </c>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101">
+      <c r="I18" s="94"/>
+      <c r="J18" s="94">
         <v>44886</v>
       </c>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101">
+      <c r="K18" s="94"/>
+      <c r="L18" s="94">
         <v>10456</v>
       </c>
-      <c r="M18" s="110"/>
-      <c r="N18" s="120">
+      <c r="M18" s="108"/>
+      <c r="N18" s="102">
         <f t="shared" si="0"/>
         <v>237415</v>
       </c>
-      <c r="O18" s="121"/>
+      <c r="O18" s="95"/>
       <c r="P18" s="19" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="100">
         <v>2307888</v>
       </c>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101">
+      <c r="R18" s="94"/>
+      <c r="S18" s="94">
         <v>973621497</v>
       </c>
-      <c r="T18" s="101"/>
-      <c r="U18" s="107">
+      <c r="T18" s="94"/>
+      <c r="U18" s="98">
         <v>1494411</v>
       </c>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107">
+      <c r="V18" s="98"/>
+      <c r="W18" s="98">
         <v>2026670718</v>
       </c>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="101">
+      <c r="X18" s="98"/>
+      <c r="Y18" s="94">
         <v>1145194695</v>
       </c>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="101">
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94">
         <v>3843137772</v>
       </c>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="101">
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94">
         <f t="shared" si="1"/>
         <v>7992426981</v>
       </c>
-      <c r="AD18" s="121"/>
+      <c r="AD18" s="95"/>
       <c r="AE18" s="15" t="s">
         <v>16</v>
       </c>
@@ -2442,64 +2451,64 @@
       <c r="B19" s="100">
         <v>9087</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="107">
+      <c r="C19" s="94"/>
+      <c r="D19" s="98">
         <v>13512</v>
       </c>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107">
+      <c r="E19" s="98"/>
+      <c r="F19" s="98">
         <v>189092</v>
       </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="101">
+      <c r="G19" s="98"/>
+      <c r="H19" s="94">
         <v>12270</v>
       </c>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101">
+      <c r="I19" s="94"/>
+      <c r="J19" s="94">
         <v>40977</v>
       </c>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101">
+      <c r="K19" s="94"/>
+      <c r="L19" s="94">
         <v>14907</v>
       </c>
-      <c r="M19" s="110"/>
-      <c r="N19" s="120">
+      <c r="M19" s="108"/>
+      <c r="N19" s="102">
         <f t="shared" si="0"/>
         <v>279845</v>
       </c>
-      <c r="O19" s="121"/>
+      <c r="O19" s="95"/>
       <c r="P19" s="19" t="s">
         <v>17</v>
       </c>
       <c r="Q19" s="100">
         <v>17904943</v>
       </c>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101">
+      <c r="R19" s="94"/>
+      <c r="S19" s="94">
         <v>5409101349</v>
       </c>
-      <c r="T19" s="101"/>
-      <c r="U19" s="107">
+      <c r="T19" s="94"/>
+      <c r="U19" s="98">
         <v>2373021</v>
       </c>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107">
+      <c r="V19" s="98"/>
+      <c r="W19" s="98">
         <v>2228862244</v>
       </c>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="101">
+      <c r="X19" s="98"/>
+      <c r="Y19" s="94">
         <v>1619081322</v>
       </c>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="101">
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94">
         <v>7669923217</v>
       </c>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="101">
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94">
         <f t="shared" si="1"/>
         <v>16947246096</v>
       </c>
-      <c r="AD19" s="121"/>
+      <c r="AD19" s="95"/>
       <c r="AE19" s="15" t="s">
         <v>17</v>
       </c>
@@ -2511,64 +2520,64 @@
       <c r="B20" s="100">
         <v>14483</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="107">
+      <c r="C20" s="94"/>
+      <c r="D20" s="98">
         <v>25269</v>
       </c>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107">
+      <c r="E20" s="98"/>
+      <c r="F20" s="98">
         <v>391686</v>
       </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="101">
+      <c r="G20" s="98"/>
+      <c r="H20" s="94">
         <v>18218</v>
       </c>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101">
+      <c r="I20" s="94"/>
+      <c r="J20" s="94">
         <v>76030</v>
       </c>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101">
+      <c r="K20" s="94"/>
+      <c r="L20" s="94">
         <v>22284</v>
       </c>
-      <c r="M20" s="110"/>
-      <c r="N20" s="120">
+      <c r="M20" s="108"/>
+      <c r="N20" s="102">
         <f t="shared" si="0"/>
         <v>547970</v>
       </c>
-      <c r="O20" s="121"/>
+      <c r="O20" s="95"/>
       <c r="P20" s="19" t="s">
         <v>18</v>
       </c>
       <c r="Q20" s="100">
         <v>47289052</v>
       </c>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101">
+      <c r="R20" s="94"/>
+      <c r="S20" s="94">
         <v>23697520218</v>
       </c>
-      <c r="T20" s="101"/>
-      <c r="U20" s="107">
+      <c r="T20" s="94"/>
+      <c r="U20" s="98">
         <v>3533709</v>
       </c>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107">
+      <c r="V20" s="98"/>
+      <c r="W20" s="98">
         <v>5162987579</v>
       </c>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="101">
+      <c r="X20" s="98"/>
+      <c r="Y20" s="94">
         <v>2679439841</v>
       </c>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101">
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94">
         <v>13743375938</v>
       </c>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="101">
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94">
         <f t="shared" si="1"/>
         <v>45334146337</v>
       </c>
-      <c r="AD20" s="121"/>
+      <c r="AD20" s="95"/>
       <c r="AE20" s="15" t="s">
         <v>18</v>
       </c>
@@ -2580,64 +2589,64 @@
       <c r="B21" s="100">
         <v>27659</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="107">
+      <c r="C21" s="94"/>
+      <c r="D21" s="98">
         <v>57068</v>
       </c>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107">
+      <c r="E21" s="98"/>
+      <c r="F21" s="98">
         <v>758980</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="101">
+      <c r="G21" s="98"/>
+      <c r="H21" s="94">
         <v>34243</v>
       </c>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101">
+      <c r="I21" s="94"/>
+      <c r="J21" s="94">
         <v>192456</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101">
+      <c r="K21" s="94"/>
+      <c r="L21" s="94">
         <v>40276</v>
       </c>
-      <c r="M21" s="110"/>
-      <c r="N21" s="120">
+      <c r="M21" s="108"/>
+      <c r="N21" s="102">
         <f t="shared" si="0"/>
         <v>1110682</v>
       </c>
-      <c r="O21" s="121"/>
+      <c r="O21" s="95"/>
       <c r="P21" s="19" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="100">
         <v>96587179</v>
       </c>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101">
+      <c r="R21" s="94"/>
+      <c r="S21" s="94">
         <v>70768342550</v>
       </c>
-      <c r="T21" s="101"/>
-      <c r="U21" s="107">
+      <c r="T21" s="94"/>
+      <c r="U21" s="98">
         <v>6781474</v>
       </c>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107">
+      <c r="V21" s="98"/>
+      <c r="W21" s="98">
         <v>7858201177</v>
       </c>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="101">
+      <c r="X21" s="98"/>
+      <c r="Y21" s="94">
         <v>4196188034</v>
       </c>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="101">
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94">
         <v>20213596008</v>
       </c>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="101">
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94">
         <f t="shared" si="1"/>
         <v>103139696422</v>
       </c>
-      <c r="AD21" s="121"/>
+      <c r="AD21" s="95"/>
       <c r="AE21" s="15" t="s">
         <v>19</v>
       </c>
@@ -2649,64 +2658,64 @@
       <c r="B22" s="100">
         <v>2302</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="107">
+      <c r="C22" s="94"/>
+      <c r="D22" s="98">
         <v>2841</v>
       </c>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107">
+      <c r="E22" s="98"/>
+      <c r="F22" s="98">
         <v>22256</v>
       </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="101">
+      <c r="G22" s="98"/>
+      <c r="H22" s="94">
         <v>2776</v>
       </c>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101">
+      <c r="I22" s="94"/>
+      <c r="J22" s="94">
         <v>8886</v>
       </c>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101">
+      <c r="K22" s="94"/>
+      <c r="L22" s="94">
         <v>3311</v>
       </c>
-      <c r="M22" s="110"/>
-      <c r="N22" s="120">
+      <c r="M22" s="108"/>
+      <c r="N22" s="102">
         <f t="shared" si="0"/>
         <v>42372</v>
       </c>
-      <c r="O22" s="121"/>
+      <c r="O22" s="95"/>
       <c r="P22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="100">
         <v>340787</v>
       </c>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101">
+      <c r="R22" s="94"/>
+      <c r="S22" s="94">
         <v>19232008</v>
       </c>
-      <c r="T22" s="101"/>
-      <c r="U22" s="107">
+      <c r="T22" s="94"/>
+      <c r="U22" s="98">
         <v>814210</v>
       </c>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107">
+      <c r="V22" s="98"/>
+      <c r="W22" s="98">
         <v>267229524</v>
       </c>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="101">
+      <c r="X22" s="98"/>
+      <c r="Y22" s="94">
         <v>433003791</v>
       </c>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="101">
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94">
         <v>1245122456</v>
       </c>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="101">
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94">
         <f t="shared" si="1"/>
         <v>1965742776</v>
       </c>
-      <c r="AD22" s="121"/>
+      <c r="AD22" s="95"/>
       <c r="AE22" s="15" t="s">
         <v>20</v>
       </c>
@@ -2718,64 +2727,64 @@
       <c r="B23" s="100">
         <v>1893</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="107">
+      <c r="C23" s="94"/>
+      <c r="D23" s="98">
         <v>2395</v>
       </c>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107">
+      <c r="E23" s="98"/>
+      <c r="F23" s="98">
         <v>14345</v>
       </c>
-      <c r="G23" s="107"/>
-      <c r="H23" s="101">
+      <c r="G23" s="98"/>
+      <c r="H23" s="94">
         <v>2414</v>
       </c>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101">
+      <c r="I23" s="94"/>
+      <c r="J23" s="94">
         <v>5860</v>
       </c>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101">
+      <c r="K23" s="94"/>
+      <c r="L23" s="94">
         <v>2907</v>
       </c>
-      <c r="M23" s="110"/>
-      <c r="N23" s="120">
+      <c r="M23" s="108"/>
+      <c r="N23" s="102">
         <f t="shared" si="0"/>
         <v>29814</v>
       </c>
-      <c r="O23" s="121"/>
+      <c r="O23" s="95"/>
       <c r="P23" s="19" t="s">
         <v>21</v>
       </c>
       <c r="Q23" s="100">
         <v>142084</v>
       </c>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101">
+      <c r="R23" s="94"/>
+      <c r="S23" s="94">
         <v>5697</v>
       </c>
-      <c r="T23" s="101"/>
-      <c r="U23" s="107">
+      <c r="T23" s="94"/>
+      <c r="U23" s="98">
         <v>362579</v>
       </c>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107">
+      <c r="V23" s="98"/>
+      <c r="W23" s="98">
         <v>3405503471</v>
       </c>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="101">
+      <c r="X23" s="98"/>
+      <c r="Y23" s="94">
         <v>326036866</v>
       </c>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="101">
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="94">
         <v>813478122</v>
       </c>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="101">
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="94">
         <f t="shared" si="1"/>
         <v>4545528819</v>
       </c>
-      <c r="AD23" s="121"/>
+      <c r="AD23" s="95"/>
       <c r="AE23" s="15" t="s">
         <v>21</v>
       </c>
@@ -2787,64 +2796,64 @@
       <c r="B24" s="100">
         <v>3667</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="107">
+      <c r="C24" s="94"/>
+      <c r="D24" s="98">
         <v>5109</v>
       </c>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107">
+      <c r="E24" s="98"/>
+      <c r="F24" s="98">
         <v>110545</v>
       </c>
-      <c r="G24" s="107"/>
-      <c r="H24" s="101">
+      <c r="G24" s="98"/>
+      <c r="H24" s="94">
         <v>4777</v>
       </c>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101">
+      <c r="I24" s="94"/>
+      <c r="J24" s="94">
         <v>43091</v>
       </c>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101">
+      <c r="K24" s="94"/>
+      <c r="L24" s="94">
         <v>5538</v>
       </c>
-      <c r="M24" s="110"/>
-      <c r="N24" s="120">
+      <c r="M24" s="108"/>
+      <c r="N24" s="102">
         <f t="shared" si="0"/>
         <v>172727</v>
       </c>
-      <c r="O24" s="121"/>
+      <c r="O24" s="95"/>
       <c r="P24" s="19" t="s">
         <v>22</v>
       </c>
       <c r="Q24" s="100">
         <v>265825</v>
       </c>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101">
+      <c r="R24" s="94"/>
+      <c r="S24" s="94">
         <v>1291861367</v>
       </c>
-      <c r="T24" s="101"/>
-      <c r="U24" s="107">
+      <c r="T24" s="94"/>
+      <c r="U24" s="98">
         <v>899582</v>
       </c>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107">
+      <c r="V24" s="98"/>
+      <c r="W24" s="98">
         <v>519382864</v>
       </c>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="101">
+      <c r="X24" s="98"/>
+      <c r="Y24" s="94">
         <v>673338494</v>
       </c>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101">
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94">
         <v>1601339086</v>
       </c>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101">
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94">
         <f t="shared" si="1"/>
         <v>4087087218</v>
       </c>
-      <c r="AD24" s="121"/>
+      <c r="AD24" s="95"/>
       <c r="AE24" s="15" t="s">
         <v>22</v>
       </c>
@@ -2856,64 +2865,64 @@
       <c r="B25" s="100">
         <v>3277</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="107">
+      <c r="C25" s="94"/>
+      <c r="D25" s="98">
         <v>4332</v>
       </c>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107">
+      <c r="E25" s="98"/>
+      <c r="F25" s="98">
         <v>87226</v>
       </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="101">
+      <c r="G25" s="98"/>
+      <c r="H25" s="94">
         <v>4198</v>
       </c>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101">
+      <c r="I25" s="94"/>
+      <c r="J25" s="94">
         <v>31052</v>
       </c>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101">
+      <c r="K25" s="94"/>
+      <c r="L25" s="94">
         <v>4902</v>
       </c>
-      <c r="M25" s="110"/>
-      <c r="N25" s="120">
+      <c r="M25" s="108"/>
+      <c r="N25" s="102">
         <f t="shared" si="0"/>
         <v>134987</v>
       </c>
-      <c r="O25" s="121"/>
+      <c r="O25" s="95"/>
       <c r="P25" s="19" t="s">
         <v>23</v>
       </c>
       <c r="Q25" s="100">
         <v>261670</v>
       </c>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101">
+      <c r="R25" s="94"/>
+      <c r="S25" s="94">
         <v>291002643</v>
       </c>
-      <c r="T25" s="101"/>
-      <c r="U25" s="107">
+      <c r="T25" s="94"/>
+      <c r="U25" s="98">
         <v>798674</v>
       </c>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107">
+      <c r="V25" s="98"/>
+      <c r="W25" s="98">
         <v>869325759</v>
       </c>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="101">
+      <c r="X25" s="98"/>
+      <c r="Y25" s="94">
         <v>527360313</v>
       </c>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101">
+      <c r="Z25" s="94"/>
+      <c r="AA25" s="94">
         <v>1408968797</v>
       </c>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="101">
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="94">
         <f t="shared" si="1"/>
         <v>3097717856</v>
       </c>
-      <c r="AD25" s="121"/>
+      <c r="AD25" s="95"/>
       <c r="AE25" s="15" t="s">
         <v>23</v>
       </c>
@@ -2925,64 +2934,64 @@
       <c r="B26" s="100">
         <v>2498</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="107">
+      <c r="C26" s="94"/>
+      <c r="D26" s="98">
         <v>3055</v>
       </c>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107">
+      <c r="E26" s="98"/>
+      <c r="F26" s="98">
         <v>65043</v>
       </c>
-      <c r="G26" s="107"/>
-      <c r="H26" s="101">
+      <c r="G26" s="98"/>
+      <c r="H26" s="94">
         <v>3002</v>
       </c>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101">
+      <c r="I26" s="94"/>
+      <c r="J26" s="94">
         <v>22598</v>
       </c>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101">
+      <c r="K26" s="94"/>
+      <c r="L26" s="94">
         <v>3646</v>
       </c>
-      <c r="M26" s="110"/>
-      <c r="N26" s="120">
+      <c r="M26" s="108"/>
+      <c r="N26" s="102">
         <f t="shared" si="0"/>
         <v>99842</v>
       </c>
-      <c r="O26" s="121"/>
+      <c r="O26" s="95"/>
       <c r="P26" s="19" t="s">
         <v>24</v>
       </c>
       <c r="Q26" s="100">
         <v>178543</v>
       </c>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101">
+      <c r="R26" s="94"/>
+      <c r="S26" s="94">
         <v>309732441</v>
       </c>
-      <c r="T26" s="101"/>
-      <c r="U26" s="107">
+      <c r="T26" s="94"/>
+      <c r="U26" s="98">
         <v>567204</v>
       </c>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107">
+      <c r="V26" s="98"/>
+      <c r="W26" s="98">
         <v>733050013</v>
       </c>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="101">
+      <c r="X26" s="98"/>
+      <c r="Y26" s="94">
         <v>317665400</v>
       </c>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101">
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94">
         <v>1505645514</v>
       </c>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="101">
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94">
         <f t="shared" si="1"/>
         <v>2866839115</v>
       </c>
-      <c r="AD26" s="121"/>
+      <c r="AD26" s="95"/>
       <c r="AE26" s="15" t="s">
         <v>24</v>
       </c>
@@ -2994,64 +3003,64 @@
       <c r="B27" s="100">
         <v>2342</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="107">
+      <c r="C27" s="94"/>
+      <c r="D27" s="98">
         <v>2953</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107">
+      <c r="E27" s="98"/>
+      <c r="F27" s="98">
         <v>53692</v>
       </c>
-      <c r="G27" s="107"/>
-      <c r="H27" s="101">
+      <c r="G27" s="98"/>
+      <c r="H27" s="94">
         <v>2970</v>
       </c>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101">
+      <c r="I27" s="94"/>
+      <c r="J27" s="94">
         <v>17053</v>
       </c>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101">
+      <c r="K27" s="94"/>
+      <c r="L27" s="94">
         <v>3541</v>
       </c>
-      <c r="M27" s="110"/>
-      <c r="N27" s="120">
+      <c r="M27" s="108"/>
+      <c r="N27" s="102">
         <f t="shared" si="0"/>
         <v>82551</v>
       </c>
-      <c r="O27" s="121"/>
+      <c r="O27" s="95"/>
       <c r="P27" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q27" s="100">
         <v>112318</v>
       </c>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101">
+      <c r="R27" s="94"/>
+      <c r="S27" s="94">
         <v>443292810</v>
       </c>
-      <c r="T27" s="101"/>
-      <c r="U27" s="107">
+      <c r="T27" s="94"/>
+      <c r="U27" s="98">
         <v>413717</v>
       </c>
-      <c r="V27" s="107"/>
-      <c r="W27" s="107">
+      <c r="V27" s="98"/>
+      <c r="W27" s="98">
         <v>1030193544</v>
       </c>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="101">
+      <c r="X27" s="98"/>
+      <c r="Y27" s="94">
         <v>295170145</v>
       </c>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="101">
+      <c r="Z27" s="94"/>
+      <c r="AA27" s="94">
         <v>1099157121</v>
       </c>
-      <c r="AB27" s="101"/>
-      <c r="AC27" s="101">
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94">
         <f t="shared" si="1"/>
         <v>2868339655</v>
       </c>
-      <c r="AD27" s="121"/>
+      <c r="AD27" s="95"/>
       <c r="AE27" s="15" t="s">
         <v>25</v>
       </c>
@@ -3063,64 +3072,64 @@
       <c r="B28" s="100">
         <v>1986</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="107">
+      <c r="C28" s="94"/>
+      <c r="D28" s="98">
         <v>2434</v>
       </c>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107">
+      <c r="E28" s="98"/>
+      <c r="F28" s="98">
         <v>46731</v>
       </c>
-      <c r="G28" s="107"/>
-      <c r="H28" s="101">
+      <c r="G28" s="98"/>
+      <c r="H28" s="94">
         <v>2432</v>
       </c>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101">
+      <c r="I28" s="94"/>
+      <c r="J28" s="94">
         <v>12519</v>
       </c>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101">
+      <c r="K28" s="94"/>
+      <c r="L28" s="94">
         <v>2905</v>
       </c>
-      <c r="M28" s="110"/>
-      <c r="N28" s="120">
+      <c r="M28" s="108"/>
+      <c r="N28" s="102">
         <f t="shared" si="0"/>
         <v>69007</v>
       </c>
-      <c r="O28" s="121"/>
+      <c r="O28" s="95"/>
       <c r="P28" s="19" t="s">
         <v>26</v>
       </c>
       <c r="Q28" s="100">
         <v>114324</v>
       </c>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101">
+      <c r="R28" s="94"/>
+      <c r="S28" s="94">
         <v>167</v>
       </c>
-      <c r="T28" s="101"/>
-      <c r="U28" s="107">
+      <c r="T28" s="94"/>
+      <c r="U28" s="98">
         <v>383275</v>
       </c>
-      <c r="V28" s="107"/>
-      <c r="W28" s="107">
+      <c r="V28" s="98"/>
+      <c r="W28" s="98">
         <v>351010949</v>
       </c>
-      <c r="X28" s="107"/>
-      <c r="Y28" s="101">
+      <c r="X28" s="98"/>
+      <c r="Y28" s="94">
         <v>241086676</v>
       </c>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="101">
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94">
         <v>1066188972</v>
       </c>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="101">
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94">
         <f t="shared" si="1"/>
         <v>1658784363</v>
       </c>
-      <c r="AD28" s="121"/>
+      <c r="AD28" s="95"/>
       <c r="AE28" s="15" t="s">
         <v>26</v>
       </c>
@@ -3132,64 +3141,64 @@
       <c r="B29" s="100">
         <v>1899</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="107">
+      <c r="C29" s="94"/>
+      <c r="D29" s="98">
         <v>2550</v>
       </c>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107">
+      <c r="E29" s="98"/>
+      <c r="F29" s="98">
         <v>41348</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="101">
+      <c r="G29" s="98"/>
+      <c r="H29" s="94">
         <v>2548</v>
       </c>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101">
+      <c r="I29" s="94"/>
+      <c r="J29" s="94">
         <v>11781</v>
       </c>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101">
+      <c r="K29" s="94"/>
+      <c r="L29" s="94">
         <v>2805</v>
       </c>
-      <c r="M29" s="110"/>
-      <c r="N29" s="120">
+      <c r="M29" s="108"/>
+      <c r="N29" s="102">
         <f t="shared" si="0"/>
         <v>62931</v>
       </c>
-      <c r="O29" s="121"/>
+      <c r="O29" s="95"/>
       <c r="P29" s="19" t="s">
         <v>27</v>
       </c>
       <c r="Q29" s="100">
         <v>75251</v>
       </c>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101">
+      <c r="R29" s="94"/>
+      <c r="S29" s="94">
         <v>191</v>
       </c>
-      <c r="T29" s="101"/>
-      <c r="U29" s="107">
+      <c r="T29" s="94"/>
+      <c r="U29" s="98">
         <v>294237</v>
       </c>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107">
+      <c r="V29" s="98"/>
+      <c r="W29" s="98">
         <v>329881364</v>
       </c>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="101">
+      <c r="X29" s="98"/>
+      <c r="Y29" s="94">
         <v>153466324</v>
       </c>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="101">
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94">
         <v>619002563</v>
       </c>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101">
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94">
         <f t="shared" si="1"/>
         <v>1102719930</v>
       </c>
-      <c r="AD29" s="121"/>
+      <c r="AD29" s="95"/>
       <c r="AE29" s="15" t="s">
         <v>27</v>
       </c>
@@ -3201,64 +3210,64 @@
       <c r="B30" s="100">
         <v>1652</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="107">
+      <c r="C30" s="94"/>
+      <c r="D30" s="98">
         <v>2100</v>
       </c>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107">
+      <c r="E30" s="98"/>
+      <c r="F30" s="98">
         <v>35853</v>
       </c>
-      <c r="G30" s="107"/>
-      <c r="H30" s="101">
+      <c r="G30" s="98"/>
+      <c r="H30" s="94">
         <v>2077</v>
       </c>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101">
+      <c r="I30" s="94"/>
+      <c r="J30" s="94">
         <v>10340</v>
       </c>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101">
+      <c r="K30" s="94"/>
+      <c r="L30" s="94">
         <v>2430</v>
       </c>
-      <c r="M30" s="110"/>
-      <c r="N30" s="120">
+      <c r="M30" s="108"/>
+      <c r="N30" s="102">
         <f t="shared" si="0"/>
         <v>54452</v>
       </c>
-      <c r="O30" s="121"/>
+      <c r="O30" s="95"/>
       <c r="P30" s="19" t="s">
         <v>28</v>
       </c>
       <c r="Q30" s="100">
         <v>139478</v>
       </c>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101">
+      <c r="R30" s="94"/>
+      <c r="S30" s="94">
         <v>130</v>
       </c>
-      <c r="T30" s="101"/>
-      <c r="U30" s="107">
+      <c r="T30" s="94"/>
+      <c r="U30" s="98">
         <v>196965</v>
       </c>
-      <c r="V30" s="107"/>
-      <c r="W30" s="107">
+      <c r="V30" s="98"/>
+      <c r="W30" s="98">
         <v>233438202</v>
       </c>
-      <c r="X30" s="107"/>
-      <c r="Y30" s="101">
+      <c r="X30" s="98"/>
+      <c r="Y30" s="94">
         <v>132348603</v>
       </c>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101">
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94">
         <v>1042202578</v>
       </c>
-      <c r="AB30" s="101"/>
-      <c r="AC30" s="101">
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94">
         <f t="shared" si="1"/>
         <v>1408325956</v>
       </c>
-      <c r="AD30" s="121"/>
+      <c r="AD30" s="95"/>
       <c r="AE30" s="15" t="s">
         <v>28</v>
       </c>
@@ -3270,64 +3279,64 @@
       <c r="B31" s="100">
         <v>1975</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="107">
+      <c r="C31" s="94"/>
+      <c r="D31" s="98">
         <v>2352</v>
       </c>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107">
+      <c r="E31" s="98"/>
+      <c r="F31" s="98">
         <v>33712</v>
       </c>
-      <c r="G31" s="107"/>
-      <c r="H31" s="101">
+      <c r="G31" s="98"/>
+      <c r="H31" s="94">
         <v>2338</v>
       </c>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101">
+      <c r="I31" s="94"/>
+      <c r="J31" s="94">
         <v>9440</v>
       </c>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101">
+      <c r="K31" s="94"/>
+      <c r="L31" s="94">
         <v>2598</v>
       </c>
-      <c r="M31" s="110"/>
-      <c r="N31" s="120">
+      <c r="M31" s="108"/>
+      <c r="N31" s="102">
         <f t="shared" si="0"/>
         <v>52415</v>
       </c>
-      <c r="O31" s="121"/>
+      <c r="O31" s="95"/>
       <c r="P31" s="19" t="s">
         <v>29</v>
       </c>
       <c r="Q31" s="100">
         <v>198819</v>
       </c>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101">
+      <c r="R31" s="94"/>
+      <c r="S31" s="94">
         <v>498</v>
       </c>
-      <c r="T31" s="101"/>
-      <c r="U31" s="107">
+      <c r="T31" s="94"/>
+      <c r="U31" s="98">
         <v>265820</v>
       </c>
-      <c r="V31" s="107"/>
-      <c r="W31" s="107">
+      <c r="V31" s="98"/>
+      <c r="W31" s="98">
         <v>553569058</v>
       </c>
-      <c r="X31" s="107"/>
-      <c r="Y31" s="101">
+      <c r="X31" s="98"/>
+      <c r="Y31" s="94">
         <v>171723521</v>
       </c>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101">
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94">
         <v>646992246</v>
       </c>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="101">
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94">
         <f t="shared" si="1"/>
         <v>1372749962</v>
       </c>
-      <c r="AD31" s="121"/>
+      <c r="AD31" s="95"/>
       <c r="AE31" s="15" t="s">
         <v>29</v>
       </c>
@@ -3339,64 +3348,64 @@
       <c r="B32" s="100">
         <v>1901</v>
       </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="107">
+      <c r="C32" s="94"/>
+      <c r="D32" s="98">
         <v>2416</v>
       </c>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107">
+      <c r="E32" s="98"/>
+      <c r="F32" s="98">
         <v>31438</v>
       </c>
-      <c r="G32" s="107"/>
-      <c r="H32" s="101">
+      <c r="G32" s="98"/>
+      <c r="H32" s="94">
         <v>2487</v>
       </c>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101">
+      <c r="I32" s="94"/>
+      <c r="J32" s="94">
         <v>7604</v>
       </c>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101">
+      <c r="K32" s="94"/>
+      <c r="L32" s="94">
         <v>2915</v>
       </c>
-      <c r="M32" s="110"/>
-      <c r="N32" s="120">
+      <c r="M32" s="108"/>
+      <c r="N32" s="102">
         <f t="shared" si="0"/>
         <v>48761</v>
       </c>
-      <c r="O32" s="121"/>
+      <c r="O32" s="95"/>
       <c r="P32" s="19" t="s">
         <v>30</v>
       </c>
       <c r="Q32" s="100">
         <v>208499</v>
       </c>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101">
+      <c r="R32" s="94"/>
+      <c r="S32" s="94">
         <v>111</v>
       </c>
-      <c r="T32" s="101"/>
-      <c r="U32" s="107">
+      <c r="T32" s="94"/>
+      <c r="U32" s="98">
         <v>232010</v>
       </c>
-      <c r="V32" s="107"/>
-      <c r="W32" s="107">
+      <c r="V32" s="98"/>
+      <c r="W32" s="98">
         <v>617898328</v>
       </c>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="101">
+      <c r="X32" s="98"/>
+      <c r="Y32" s="94">
         <v>76985265</v>
       </c>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101">
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94">
         <v>742883956</v>
       </c>
-      <c r="AB32" s="101"/>
-      <c r="AC32" s="101">
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94">
         <f t="shared" si="1"/>
         <v>1438208169</v>
       </c>
-      <c r="AD32" s="121"/>
+      <c r="AD32" s="95"/>
       <c r="AE32" s="15" t="s">
         <v>30</v>
       </c>
@@ -3408,64 +3417,64 @@
       <c r="B33" s="100">
         <v>1546</v>
       </c>
-      <c r="C33" s="101"/>
-      <c r="D33" s="107">
+      <c r="C33" s="94"/>
+      <c r="D33" s="98">
         <v>2162</v>
       </c>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107">
+      <c r="E33" s="98"/>
+      <c r="F33" s="98">
         <v>29639</v>
       </c>
-      <c r="G33" s="107"/>
-      <c r="H33" s="101">
+      <c r="G33" s="98"/>
+      <c r="H33" s="94">
         <v>2184</v>
       </c>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101">
+      <c r="I33" s="94"/>
+      <c r="J33" s="94">
         <v>7055</v>
       </c>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101">
+      <c r="K33" s="94"/>
+      <c r="L33" s="94">
         <v>2633</v>
       </c>
-      <c r="M33" s="110"/>
-      <c r="N33" s="120">
+      <c r="M33" s="108"/>
+      <c r="N33" s="102">
         <f t="shared" si="0"/>
         <v>45219</v>
       </c>
-      <c r="O33" s="121"/>
+      <c r="O33" s="95"/>
       <c r="P33" s="19" t="s">
         <v>31</v>
       </c>
       <c r="Q33" s="100">
         <v>154361</v>
       </c>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101">
+      <c r="R33" s="94"/>
+      <c r="S33" s="94">
         <v>109</v>
       </c>
-      <c r="T33" s="101"/>
-      <c r="U33" s="107">
+      <c r="T33" s="94"/>
+      <c r="U33" s="98">
         <v>166282</v>
       </c>
-      <c r="V33" s="107"/>
-      <c r="W33" s="107">
+      <c r="V33" s="98"/>
+      <c r="W33" s="98">
         <v>1944110530</v>
       </c>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="101">
+      <c r="X33" s="98"/>
+      <c r="Y33" s="94">
         <v>92845261</v>
       </c>
-      <c r="Z33" s="101"/>
-      <c r="AA33" s="101">
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94">
         <v>1505513053</v>
       </c>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="101">
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94">
         <f t="shared" si="1"/>
         <v>3542789596</v>
       </c>
-      <c r="AD33" s="121"/>
+      <c r="AD33" s="95"/>
       <c r="AE33" s="15" t="s">
         <v>31</v>
       </c>
@@ -3477,64 +3486,64 @@
       <c r="B34" s="100">
         <v>856</v>
       </c>
-      <c r="C34" s="101"/>
-      <c r="D34" s="107">
+      <c r="C34" s="94"/>
+      <c r="D34" s="98">
         <v>1114</v>
       </c>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107">
+      <c r="E34" s="98"/>
+      <c r="F34" s="98">
         <v>6033</v>
       </c>
-      <c r="G34" s="107"/>
-      <c r="H34" s="101">
+      <c r="G34" s="98"/>
+      <c r="H34" s="94">
         <v>1165</v>
       </c>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101">
+      <c r="I34" s="94"/>
+      <c r="J34" s="94">
         <v>2543</v>
       </c>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101">
+      <c r="K34" s="94"/>
+      <c r="L34" s="94">
         <v>1417</v>
       </c>
-      <c r="M34" s="110"/>
-      <c r="N34" s="120">
+      <c r="M34" s="108"/>
+      <c r="N34" s="102">
         <f t="shared" si="0"/>
         <v>13128</v>
       </c>
-      <c r="O34" s="121"/>
+      <c r="O34" s="95"/>
       <c r="P34" s="19" t="s">
         <v>32</v>
       </c>
       <c r="Q34" s="100">
         <v>112771</v>
       </c>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101">
+      <c r="R34" s="94"/>
+      <c r="S34" s="94">
         <v>42</v>
       </c>
-      <c r="T34" s="101"/>
-      <c r="U34" s="107">
+      <c r="T34" s="94"/>
+      <c r="U34" s="98">
         <v>65112</v>
       </c>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107">
+      <c r="V34" s="98"/>
+      <c r="W34" s="98">
         <v>746634836</v>
       </c>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="101">
+      <c r="X34" s="98"/>
+      <c r="Y34" s="94">
         <v>139986303</v>
       </c>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="101">
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94">
         <v>906736264</v>
       </c>
-      <c r="AB34" s="101"/>
-      <c r="AC34" s="101">
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94">
         <f t="shared" si="1"/>
         <v>1793535328</v>
       </c>
-      <c r="AD34" s="121"/>
+      <c r="AD34" s="95"/>
       <c r="AE34" s="15" t="s">
         <v>32</v>
       </c>
@@ -3546,64 +3555,64 @@
       <c r="B35" s="100">
         <v>530</v>
       </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="107">
+      <c r="C35" s="94"/>
+      <c r="D35" s="98">
         <v>737</v>
       </c>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107">
+      <c r="E35" s="98"/>
+      <c r="F35" s="98">
         <v>4611</v>
       </c>
-      <c r="G35" s="107"/>
-      <c r="H35" s="101">
+      <c r="G35" s="98"/>
+      <c r="H35" s="94">
         <v>765</v>
       </c>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101">
+      <c r="I35" s="94"/>
+      <c r="J35" s="94">
         <v>1804</v>
       </c>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101">
+      <c r="K35" s="94"/>
+      <c r="L35" s="94">
         <v>1003</v>
       </c>
-      <c r="M35" s="110"/>
-      <c r="N35" s="120">
+      <c r="M35" s="108"/>
+      <c r="N35" s="102">
         <f t="shared" si="0"/>
         <v>9450</v>
       </c>
-      <c r="O35" s="121"/>
+      <c r="O35" s="95"/>
       <c r="P35" s="19" t="s">
         <v>33</v>
       </c>
       <c r="Q35" s="100">
         <v>74969</v>
       </c>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101">
+      <c r="R35" s="94"/>
+      <c r="S35" s="94">
         <v>35</v>
       </c>
-      <c r="T35" s="101"/>
-      <c r="U35" s="107">
+      <c r="T35" s="94"/>
+      <c r="U35" s="98">
         <v>44532</v>
       </c>
-      <c r="V35" s="107"/>
-      <c r="W35" s="107">
+      <c r="V35" s="98"/>
+      <c r="W35" s="98">
         <v>420397308</v>
       </c>
-      <c r="X35" s="107"/>
-      <c r="Y35" s="101">
+      <c r="X35" s="98"/>
+      <c r="Y35" s="94">
         <v>197028154</v>
       </c>
-      <c r="Z35" s="101"/>
-      <c r="AA35" s="101">
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94">
         <v>727115400</v>
       </c>
-      <c r="AB35" s="101"/>
-      <c r="AC35" s="101">
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94">
         <f t="shared" si="1"/>
         <v>1344660398</v>
       </c>
-      <c r="AD35" s="121"/>
+      <c r="AD35" s="95"/>
       <c r="AE35" s="15" t="s">
         <v>33</v>
       </c>
@@ -3615,64 +3624,64 @@
       <c r="B36" s="100">
         <v>376</v>
       </c>
-      <c r="C36" s="101"/>
-      <c r="D36" s="107">
+      <c r="C36" s="94"/>
+      <c r="D36" s="98">
         <v>490</v>
       </c>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107">
+      <c r="E36" s="98"/>
+      <c r="F36" s="98">
         <v>3295</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="101">
+      <c r="G36" s="98"/>
+      <c r="H36" s="94">
         <v>531</v>
       </c>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101">
+      <c r="I36" s="94"/>
+      <c r="J36" s="94">
         <v>1176</v>
       </c>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101">
+      <c r="K36" s="94"/>
+      <c r="L36" s="94">
         <v>635</v>
       </c>
-      <c r="M36" s="110"/>
-      <c r="N36" s="120">
+      <c r="M36" s="108"/>
+      <c r="N36" s="102">
         <f t="shared" si="0"/>
         <v>6503</v>
       </c>
-      <c r="O36" s="121"/>
+      <c r="O36" s="95"/>
       <c r="P36" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q36" s="100">
         <v>42029</v>
       </c>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101">
+      <c r="R36" s="94"/>
+      <c r="S36" s="94">
         <v>23</v>
       </c>
-      <c r="T36" s="101"/>
-      <c r="U36" s="107">
+      <c r="T36" s="94"/>
+      <c r="U36" s="98">
         <v>19135</v>
       </c>
-      <c r="V36" s="107"/>
-      <c r="W36" s="107">
+      <c r="V36" s="98"/>
+      <c r="W36" s="98">
         <v>405833358</v>
       </c>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="101">
+      <c r="X36" s="98"/>
+      <c r="Y36" s="94">
         <v>61131591</v>
       </c>
-      <c r="Z36" s="101"/>
-      <c r="AA36" s="101">
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="94">
         <v>302942719</v>
       </c>
-      <c r="AB36" s="101"/>
-      <c r="AC36" s="101">
+      <c r="AB36" s="94"/>
+      <c r="AC36" s="94">
         <f t="shared" si="1"/>
         <v>769968855</v>
       </c>
-      <c r="AD36" s="121"/>
+      <c r="AD36" s="95"/>
       <c r="AE36" s="15" t="s">
         <v>34</v>
       </c>
@@ -3681,202 +3690,215 @@
       <c r="A37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="104">
+      <c r="B37" s="101">
         <v>362</v>
       </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="108">
+      <c r="C37" s="96"/>
+      <c r="D37" s="99">
         <v>458</v>
       </c>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108">
+      <c r="E37" s="99"/>
+      <c r="F37" s="99">
         <v>2802</v>
       </c>
-      <c r="G37" s="108"/>
-      <c r="H37" s="105">
+      <c r="G37" s="99"/>
+      <c r="H37" s="96">
         <v>466</v>
       </c>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105">
+      <c r="I37" s="96"/>
+      <c r="J37" s="96">
         <v>893</v>
       </c>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105">
+      <c r="K37" s="96"/>
+      <c r="L37" s="96">
         <v>564</v>
       </c>
-      <c r="M37" s="111"/>
-      <c r="N37" s="124">
+      <c r="M37" s="109"/>
+      <c r="N37" s="103">
         <f t="shared" si="0"/>
         <v>5545</v>
       </c>
-      <c r="O37" s="125"/>
+      <c r="O37" s="97"/>
       <c r="P37" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="Q37" s="104">
+      <c r="Q37" s="101">
         <v>53700</v>
       </c>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105">
+      <c r="R37" s="96"/>
+      <c r="S37" s="96">
         <v>5</v>
       </c>
-      <c r="T37" s="105"/>
-      <c r="U37" s="108">
+      <c r="T37" s="96"/>
+      <c r="U37" s="99">
         <v>55565</v>
       </c>
-      <c r="V37" s="108"/>
-      <c r="W37" s="108">
+      <c r="V37" s="99"/>
+      <c r="W37" s="99">
         <v>1392889704</v>
       </c>
-      <c r="X37" s="108"/>
-      <c r="Y37" s="105">
+      <c r="X37" s="99"/>
+      <c r="Y37" s="96">
         <v>59913866</v>
       </c>
-      <c r="Z37" s="105"/>
-      <c r="AA37" s="105">
+      <c r="Z37" s="96"/>
+      <c r="AA37" s="96">
         <v>382710948</v>
       </c>
-      <c r="AB37" s="105"/>
-      <c r="AC37" s="105">
+      <c r="AB37" s="96"/>
+      <c r="AC37" s="96">
         <f t="shared" si="1"/>
         <v>1835623788</v>
       </c>
-      <c r="AD37" s="125"/>
+      <c r="AD37" s="97"/>
       <c r="AE37" s="16" t="s">
         <v>35</v>
       </c>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
     </row>
     <row r="38" spans="1:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="99">
+      <c r="B38" s="114">
         <f>SUM(B6:C37)</f>
         <v>164694</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85">
+      <c r="C38" s="115"/>
+      <c r="D38" s="115">
         <f>SUM(D6:E37)</f>
         <v>251281</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85">
+      <c r="E38" s="115"/>
+      <c r="F38" s="115">
         <f t="shared" ref="F38" si="2">SUM(F6:G37)</f>
         <v>4236463</v>
       </c>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85">
+      <c r="G38" s="115"/>
+      <c r="H38" s="115">
         <f t="shared" ref="H38" si="3">SUM(H6:I37)</f>
         <v>204002</v>
       </c>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85">
+      <c r="I38" s="115"/>
+      <c r="J38" s="115">
         <f t="shared" ref="J38" si="4">SUM(J6:K37)</f>
         <v>1394174</v>
       </c>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85">
+      <c r="K38" s="115"/>
+      <c r="L38" s="115">
         <f t="shared" ref="L38" si="5">SUM(L6:M37)</f>
         <v>238790</v>
       </c>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85">
+      <c r="M38" s="115"/>
+      <c r="N38" s="115">
         <f t="shared" ref="N38" si="6">SUM(N6:O37)</f>
         <v>6489404</v>
       </c>
-      <c r="O38" s="86"/>
+      <c r="O38" s="116"/>
       <c r="P38" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="Q38" s="99">
+      <c r="Q38" s="114">
         <f>SUM(Q6:R37)</f>
         <v>236021416</v>
       </c>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85">
+      <c r="R38" s="115"/>
+      <c r="S38" s="115">
         <f t="shared" ref="S38" si="7">SUM(S6:T37)</f>
         <v>122498846375</v>
       </c>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85">
+      <c r="T38" s="115"/>
+      <c r="U38" s="115">
         <f t="shared" ref="U38" si="8">SUM(U6:V37)</f>
         <v>33849828</v>
       </c>
-      <c r="V38" s="85"/>
-      <c r="W38" s="85">
+      <c r="V38" s="115"/>
+      <c r="W38" s="115">
         <f t="shared" ref="W38" si="9">SUM(W6:X37)</f>
         <v>51083774709</v>
       </c>
-      <c r="X38" s="85"/>
-      <c r="Y38" s="85">
+      <c r="X38" s="115"/>
+      <c r="Y38" s="115">
         <f t="shared" ref="Y38" si="10">SUM(Y6:Z37)</f>
         <v>27587433922</v>
       </c>
-      <c r="Z38" s="85"/>
-      <c r="AA38" s="85">
+      <c r="Z38" s="115"/>
+      <c r="AA38" s="115">
         <f t="shared" ref="AA38" si="11">SUM(AA6:AB37)</f>
         <v>91793402497</v>
       </c>
-      <c r="AB38" s="85"/>
-      <c r="AC38" s="85">
+      <c r="AB38" s="115"/>
+      <c r="AC38" s="115">
         <f t="shared" ref="AC38" si="12">SUM(AC6:AD37)</f>
         <v>293233328747</v>
       </c>
-      <c r="AD38" s="86"/>
+      <c r="AD38" s="116"/>
       <c r="AE38" s="52" t="s">
         <v>45</v>
       </c>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
     </row>
     <row r="39" spans="1:51" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="128"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="92"/>
       <c r="P39" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="Q39" s="126" t="s">
+      <c r="Q39" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="R39" s="127"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="127"/>
-      <c r="U39" s="127"/>
-      <c r="V39" s="127"/>
-      <c r="W39" s="127"/>
-      <c r="X39" s="127"/>
-      <c r="Y39" s="127"/>
-      <c r="Z39" s="127"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="127"/>
-      <c r="AC39" s="127"/>
-      <c r="AD39" s="128"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="91"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="91"/>
+      <c r="W39" s="91"/>
+      <c r="X39" s="91"/>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="91"/>
+      <c r="AA39" s="91"/>
+      <c r="AB39" s="91"/>
+      <c r="AC39" s="91"/>
+      <c r="AD39" s="92"/>
       <c r="AE39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AF39" s="87" t="s">
+      <c r="AF39" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="AG39" s="88"/>
-      <c r="AK39" s="37"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="34"/>
-      <c r="AN39" s="34"/>
+      <c r="AG39" s="118"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="142"/>
+      <c r="AL39" s="143"/>
+      <c r="AM39" s="143"/>
+      <c r="AN39" s="143"/>
       <c r="AO39" s="34"/>
       <c r="AP39" s="34"/>
       <c r="AQ39" s="34"/>
@@ -3893,76 +3915,77 @@
       <c r="A40" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="117" t="s">
+      <c r="B40" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118" t="s">
+      <c r="C40" s="85"/>
+      <c r="D40" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118" t="s">
+      <c r="E40" s="85"/>
+      <c r="F40" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118" t="s">
+      <c r="G40" s="85"/>
+      <c r="H40" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118" t="s">
+      <c r="I40" s="85"/>
+      <c r="J40" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118" t="s">
+      <c r="K40" s="85"/>
+      <c r="L40" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="M40" s="119"/>
-      <c r="N40" s="115" t="s">
+      <c r="M40" s="104"/>
+      <c r="N40" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="O40" s="116"/>
+      <c r="O40" s="86"/>
       <c r="P40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="Q40" s="117" t="s">
+      <c r="Q40" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="R40" s="118"/>
-      <c r="S40" s="118" t="s">
+      <c r="R40" s="85"/>
+      <c r="S40" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="T40" s="118"/>
-      <c r="U40" s="118" t="s">
+      <c r="T40" s="85"/>
+      <c r="U40" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="V40" s="118"/>
-      <c r="W40" s="118" t="s">
+      <c r="V40" s="85"/>
+      <c r="W40" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="X40" s="118"/>
-      <c r="Y40" s="118" t="s">
+      <c r="X40" s="85"/>
+      <c r="Y40" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="Z40" s="118"/>
-      <c r="AA40" s="118" t="s">
+      <c r="Z40" s="85"/>
+      <c r="AA40" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="AB40" s="118"/>
-      <c r="AC40" s="118" t="s">
+      <c r="AB40" s="85"/>
+      <c r="AC40" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="AD40" s="116"/>
+      <c r="AD40" s="86"/>
       <c r="AE40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AF40" s="89"/>
-      <c r="AG40" s="90"/>
+      <c r="AF40" s="119"/>
+      <c r="AG40" s="120"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="32"/>
-      <c r="AM40" s="32"/>
-      <c r="AN40" s="32"/>
+      <c r="AJ40" s="53"/>
+      <c r="AK40" s="54"/>
+      <c r="AL40" s="145"/>
+      <c r="AM40" s="144"/>
+      <c r="AN40" s="144"/>
       <c r="AO40" s="32"/>
       <c r="AP40" s="33"/>
       <c r="AQ40" s="33"/>
@@ -4069,19 +4092,20 @@
       <c r="AE41" s="69">
         <v>1</v>
       </c>
-      <c r="AF41" s="95">
+      <c r="AF41" s="125">
         <f>SUM(AD41:AD44,AD46:AD53)</f>
         <v>0.83591476849966406</v>
       </c>
-      <c r="AG41" s="97" t="s">
+      <c r="AG41" s="127" t="s">
         <v>50</v>
       </c>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="32"/>
-      <c r="AM41" s="32"/>
-      <c r="AN41" s="32"/>
+      <c r="AJ41" s="53"/>
+      <c r="AK41" s="54"/>
+      <c r="AL41" s="145"/>
+      <c r="AM41" s="144"/>
+      <c r="AN41" s="144"/>
       <c r="AO41" s="32"/>
       <c r="AP41" s="33"/>
       <c r="AQ41" s="33"/>
@@ -4188,15 +4212,15 @@
       <c r="AE42" s="70">
         <v>2</v>
       </c>
-      <c r="AF42" s="96"/>
-      <c r="AG42" s="98"/>
+      <c r="AF42" s="126"/>
+      <c r="AG42" s="128"/>
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="32"/>
-      <c r="AM42" s="32"/>
-      <c r="AN42" s="32"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="145"/>
+      <c r="AM42" s="144"/>
+      <c r="AN42" s="144"/>
       <c r="AO42" s="32"/>
       <c r="AP42" s="33"/>
       <c r="AQ42" s="33"/>
@@ -4303,15 +4327,15 @@
       <c r="AE43" s="70">
         <v>3</v>
       </c>
-      <c r="AF43" s="96"/>
-      <c r="AG43" s="98"/>
+      <c r="AF43" s="126"/>
+      <c r="AG43" s="128"/>
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="32"/>
-      <c r="AM43" s="32"/>
-      <c r="AN43" s="32"/>
+      <c r="AJ43" s="53"/>
+      <c r="AK43" s="54"/>
+      <c r="AL43" s="145"/>
+      <c r="AM43" s="144"/>
+      <c r="AN43" s="144"/>
       <c r="AO43" s="32"/>
       <c r="AP43" s="33"/>
       <c r="AQ43" s="33"/>
@@ -4418,15 +4442,15 @@
       <c r="AE44" s="70">
         <v>4</v>
       </c>
-      <c r="AF44" s="96"/>
-      <c r="AG44" s="98"/>
+      <c r="AF44" s="126"/>
+      <c r="AG44" s="128"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="32"/>
-      <c r="AM44" s="32"/>
-      <c r="AN44" s="32"/>
+      <c r="AJ44" s="53"/>
+      <c r="AK44" s="54"/>
+      <c r="AL44" s="145"/>
+      <c r="AM44" s="144"/>
+      <c r="AN44" s="144"/>
       <c r="AO44" s="32"/>
       <c r="AP44" s="33"/>
       <c r="AQ44" s="33"/>
@@ -4533,15 +4557,15 @@
       <c r="AE45" s="70">
         <v>5</v>
       </c>
-      <c r="AF45" s="96"/>
-      <c r="AG45" s="98"/>
+      <c r="AF45" s="126"/>
+      <c r="AG45" s="128"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
-      <c r="AJ45" s="3"/>
-      <c r="AK45" s="26"/>
-      <c r="AL45" s="32"/>
-      <c r="AM45" s="32"/>
-      <c r="AN45" s="32"/>
+      <c r="AJ45" s="53"/>
+      <c r="AK45" s="54"/>
+      <c r="AL45" s="145"/>
+      <c r="AM45" s="144"/>
+      <c r="AN45" s="144"/>
       <c r="AO45" s="32"/>
       <c r="AP45" s="33"/>
       <c r="AQ45" s="33"/>
@@ -4648,15 +4672,15 @@
       <c r="AE46" s="70">
         <v>6</v>
       </c>
-      <c r="AF46" s="96"/>
-      <c r="AG46" s="98"/>
+      <c r="AF46" s="126"/>
+      <c r="AG46" s="128"/>
       <c r="AH46" s="34"/>
       <c r="AI46" s="34"/>
-      <c r="AJ46" s="34"/>
-      <c r="AK46" s="26"/>
-      <c r="AL46" s="32"/>
-      <c r="AM46" s="32"/>
-      <c r="AN46" s="32"/>
+      <c r="AJ46" s="53"/>
+      <c r="AK46" s="54"/>
+      <c r="AL46" s="145"/>
+      <c r="AM46" s="144"/>
+      <c r="AN46" s="144"/>
       <c r="AO46" s="32"/>
       <c r="AP46" s="33"/>
       <c r="AQ46" s="33"/>
@@ -4763,15 +4787,15 @@
       <c r="AE47" s="70">
         <v>7</v>
       </c>
-      <c r="AF47" s="96"/>
-      <c r="AG47" s="98"/>
+      <c r="AF47" s="126"/>
+      <c r="AG47" s="128"/>
       <c r="AH47" s="32"/>
       <c r="AI47" s="32"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="32"/>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="32"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="54"/>
+      <c r="AL47" s="145"/>
+      <c r="AM47" s="144"/>
+      <c r="AN47" s="144"/>
       <c r="AO47" s="32"/>
       <c r="AP47" s="33"/>
       <c r="AQ47" s="33"/>
@@ -4878,15 +4902,15 @@
       <c r="AE48" s="70">
         <v>8</v>
       </c>
-      <c r="AF48" s="96"/>
-      <c r="AG48" s="98"/>
+      <c r="AF48" s="126"/>
+      <c r="AG48" s="128"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
-      <c r="AJ48" s="32"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="32"/>
-      <c r="AM48" s="32"/>
-      <c r="AN48" s="32"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="54"/>
+      <c r="AL48" s="145"/>
+      <c r="AM48" s="144"/>
+      <c r="AN48" s="144"/>
       <c r="AO48" s="32"/>
       <c r="AP48" s="33"/>
       <c r="AQ48" s="33"/>
@@ -4993,15 +5017,15 @@
       <c r="AE49" s="70">
         <v>9</v>
       </c>
-      <c r="AF49" s="96"/>
-      <c r="AG49" s="98"/>
+      <c r="AF49" s="126"/>
+      <c r="AG49" s="128"/>
       <c r="AH49" s="32"/>
       <c r="AI49" s="32"/>
-      <c r="AJ49" s="32"/>
-      <c r="AK49" s="26"/>
-      <c r="AL49" s="32"/>
-      <c r="AM49" s="32"/>
-      <c r="AN49" s="32"/>
+      <c r="AJ49" s="53"/>
+      <c r="AK49" s="54"/>
+      <c r="AL49" s="145"/>
+      <c r="AM49" s="144"/>
+      <c r="AN49" s="144"/>
       <c r="AO49" s="32"/>
       <c r="AP49" s="33"/>
       <c r="AQ49" s="33"/>
@@ -5108,15 +5132,15 @@
       <c r="AE50" s="70">
         <v>10</v>
       </c>
-      <c r="AF50" s="96"/>
-      <c r="AG50" s="98"/>
+      <c r="AF50" s="126"/>
+      <c r="AG50" s="128"/>
       <c r="AH50" s="32"/>
       <c r="AI50" s="32"/>
-      <c r="AJ50" s="32"/>
-      <c r="AK50" s="26"/>
-      <c r="AL50" s="32"/>
-      <c r="AM50" s="32"/>
-      <c r="AN50" s="32"/>
+      <c r="AJ50" s="53"/>
+      <c r="AK50" s="54"/>
+      <c r="AL50" s="145"/>
+      <c r="AM50" s="144"/>
+      <c r="AN50" s="144"/>
       <c r="AO50" s="32"/>
       <c r="AP50" s="33"/>
       <c r="AQ50" s="33"/>
@@ -5223,15 +5247,15 @@
       <c r="AE51" s="70">
         <v>11</v>
       </c>
-      <c r="AF51" s="96"/>
-      <c r="AG51" s="98"/>
+      <c r="AF51" s="126"/>
+      <c r="AG51" s="128"/>
       <c r="AH51" s="32"/>
       <c r="AI51" s="32"/>
-      <c r="AJ51" s="32"/>
-      <c r="AK51" s="26"/>
-      <c r="AL51" s="32"/>
-      <c r="AM51" s="32"/>
-      <c r="AN51" s="32"/>
+      <c r="AJ51" s="53"/>
+      <c r="AK51" s="54"/>
+      <c r="AL51" s="145"/>
+      <c r="AM51" s="144"/>
+      <c r="AN51" s="144"/>
       <c r="AO51" s="32"/>
       <c r="AP51" s="33"/>
       <c r="AQ51" s="33"/>
@@ -5338,15 +5362,15 @@
       <c r="AE52" s="70">
         <v>12</v>
       </c>
-      <c r="AF52" s="96"/>
-      <c r="AG52" s="98"/>
+      <c r="AF52" s="126"/>
+      <c r="AG52" s="128"/>
       <c r="AH52" s="32"/>
       <c r="AI52" s="32"/>
-      <c r="AJ52" s="32"/>
-      <c r="AK52" s="26"/>
-      <c r="AL52" s="32"/>
-      <c r="AM52" s="32"/>
-      <c r="AN52" s="32"/>
+      <c r="AJ52" s="53"/>
+      <c r="AK52" s="54"/>
+      <c r="AL52" s="145"/>
+      <c r="AM52" s="144"/>
+      <c r="AN52" s="144"/>
       <c r="AO52" s="32"/>
       <c r="AP52" s="33"/>
       <c r="AQ52" s="33"/>
@@ -5453,20 +5477,20 @@
       <c r="AE53" s="71">
         <v>13</v>
       </c>
-      <c r="AF53" s="91">
+      <c r="AF53" s="121">
         <f>1-AF41</f>
         <v>0.16408523150033594</v>
       </c>
-      <c r="AG53" s="93" t="s">
+      <c r="AG53" s="123" t="s">
         <v>49</v>
       </c>
       <c r="AH53" s="32"/>
       <c r="AI53" s="32"/>
-      <c r="AJ53" s="32"/>
-      <c r="AK53" s="26"/>
-      <c r="AL53" s="32"/>
-      <c r="AM53" s="32"/>
-      <c r="AN53" s="32"/>
+      <c r="AJ53" s="53"/>
+      <c r="AK53" s="54"/>
+      <c r="AL53" s="145"/>
+      <c r="AM53" s="144"/>
+      <c r="AN53" s="144"/>
       <c r="AO53" s="32"/>
       <c r="AP53" s="33"/>
       <c r="AQ53" s="33"/>
@@ -5573,15 +5597,15 @@
       <c r="AE54" s="71">
         <v>14</v>
       </c>
-      <c r="AF54" s="91"/>
-      <c r="AG54" s="93"/>
+      <c r="AF54" s="121"/>
+      <c r="AG54" s="123"/>
       <c r="AH54" s="32"/>
       <c r="AI54" s="32"/>
-      <c r="AJ54" s="32"/>
-      <c r="AK54" s="26"/>
-      <c r="AL54" s="32"/>
-      <c r="AM54" s="32"/>
-      <c r="AN54" s="32"/>
+      <c r="AJ54" s="53"/>
+      <c r="AK54" s="54"/>
+      <c r="AL54" s="145"/>
+      <c r="AM54" s="144"/>
+      <c r="AN54" s="144"/>
       <c r="AO54" s="32"/>
       <c r="AP54" s="33"/>
       <c r="AQ54" s="33"/>
@@ -5688,15 +5712,15 @@
       <c r="AE55" s="71">
         <v>15</v>
       </c>
-      <c r="AF55" s="91"/>
-      <c r="AG55" s="93"/>
+      <c r="AF55" s="121"/>
+      <c r="AG55" s="123"/>
       <c r="AH55" s="32"/>
       <c r="AI55" s="32"/>
-      <c r="AJ55" s="32"/>
-      <c r="AK55" s="26"/>
-      <c r="AL55" s="32"/>
-      <c r="AM55" s="32"/>
-      <c r="AN55" s="32"/>
+      <c r="AJ55" s="53"/>
+      <c r="AK55" s="54"/>
+      <c r="AL55" s="145"/>
+      <c r="AM55" s="144"/>
+      <c r="AN55" s="144"/>
       <c r="AO55" s="32"/>
       <c r="AP55" s="33"/>
       <c r="AQ55" s="33"/>
@@ -5803,15 +5827,15 @@
       <c r="AE56" s="71">
         <v>16</v>
       </c>
-      <c r="AF56" s="91"/>
-      <c r="AG56" s="93"/>
+      <c r="AF56" s="121"/>
+      <c r="AG56" s="123"/>
       <c r="AH56" s="32"/>
       <c r="AI56" s="32"/>
-      <c r="AJ56" s="32"/>
-      <c r="AK56" s="26"/>
-      <c r="AL56" s="32"/>
-      <c r="AM56" s="32"/>
-      <c r="AN56" s="32"/>
+      <c r="AJ56" s="53"/>
+      <c r="AK56" s="54"/>
+      <c r="AL56" s="145"/>
+      <c r="AM56" s="144"/>
+      <c r="AN56" s="144"/>
       <c r="AO56" s="32"/>
       <c r="AP56" s="33"/>
       <c r="AQ56" s="33"/>
@@ -5918,15 +5942,15 @@
       <c r="AE57" s="71">
         <v>17</v>
       </c>
-      <c r="AF57" s="91"/>
-      <c r="AG57" s="93"/>
+      <c r="AF57" s="121"/>
+      <c r="AG57" s="123"/>
       <c r="AH57" s="32"/>
       <c r="AI57" s="32"/>
-      <c r="AJ57" s="32"/>
-      <c r="AK57" s="26"/>
-      <c r="AL57" s="32"/>
-      <c r="AM57" s="32"/>
-      <c r="AN57" s="32"/>
+      <c r="AJ57" s="53"/>
+      <c r="AK57" s="54"/>
+      <c r="AL57" s="145"/>
+      <c r="AM57" s="144"/>
+      <c r="AN57" s="144"/>
       <c r="AO57" s="32"/>
       <c r="AP57" s="33"/>
       <c r="AQ57" s="33"/>
@@ -6033,15 +6057,15 @@
       <c r="AE58" s="71">
         <v>18</v>
       </c>
-      <c r="AF58" s="91"/>
-      <c r="AG58" s="93"/>
+      <c r="AF58" s="121"/>
+      <c r="AG58" s="123"/>
       <c r="AH58" s="32"/>
       <c r="AI58" s="32"/>
-      <c r="AJ58" s="32"/>
-      <c r="AK58" s="26"/>
-      <c r="AL58" s="32"/>
-      <c r="AM58" s="32"/>
-      <c r="AN58" s="32"/>
+      <c r="AJ58" s="53"/>
+      <c r="AK58" s="54"/>
+      <c r="AL58" s="145"/>
+      <c r="AM58" s="144"/>
+      <c r="AN58" s="144"/>
       <c r="AO58" s="32"/>
       <c r="AP58" s="33"/>
       <c r="AQ58" s="33"/>
@@ -6148,15 +6172,15 @@
       <c r="AE59" s="71">
         <v>19</v>
       </c>
-      <c r="AF59" s="91"/>
-      <c r="AG59" s="93"/>
+      <c r="AF59" s="121"/>
+      <c r="AG59" s="123"/>
       <c r="AH59" s="32"/>
       <c r="AI59" s="32"/>
-      <c r="AJ59" s="32"/>
-      <c r="AK59" s="26"/>
-      <c r="AL59" s="32"/>
-      <c r="AM59" s="32"/>
-      <c r="AN59" s="32"/>
+      <c r="AJ59" s="53"/>
+      <c r="AK59" s="54"/>
+      <c r="AL59" s="145"/>
+      <c r="AM59" s="144"/>
+      <c r="AN59" s="144"/>
       <c r="AO59" s="32"/>
       <c r="AP59" s="33"/>
       <c r="AQ59" s="33"/>
@@ -6263,15 +6287,15 @@
       <c r="AE60" s="71">
         <v>20</v>
       </c>
-      <c r="AF60" s="91"/>
-      <c r="AG60" s="93"/>
+      <c r="AF60" s="121"/>
+      <c r="AG60" s="123"/>
       <c r="AH60" s="32"/>
       <c r="AI60" s="32"/>
-      <c r="AJ60" s="32"/>
-      <c r="AK60" s="26"/>
-      <c r="AL60" s="32"/>
-      <c r="AM60" s="32"/>
-      <c r="AN60" s="32"/>
+      <c r="AJ60" s="53"/>
+      <c r="AK60" s="54"/>
+      <c r="AL60" s="145"/>
+      <c r="AM60" s="144"/>
+      <c r="AN60" s="144"/>
       <c r="AO60" s="32"/>
       <c r="AP60" s="33"/>
       <c r="AQ60" s="33"/>
@@ -6378,15 +6402,15 @@
       <c r="AE61" s="71">
         <v>21</v>
       </c>
-      <c r="AF61" s="91"/>
-      <c r="AG61" s="93"/>
+      <c r="AF61" s="121"/>
+      <c r="AG61" s="123"/>
       <c r="AH61" s="32"/>
       <c r="AI61" s="32"/>
-      <c r="AJ61" s="32"/>
-      <c r="AK61" s="26"/>
-      <c r="AL61" s="32"/>
-      <c r="AM61" s="32"/>
-      <c r="AN61" s="32"/>
+      <c r="AJ61" s="53"/>
+      <c r="AK61" s="54"/>
+      <c r="AL61" s="145"/>
+      <c r="AM61" s="144"/>
+      <c r="AN61" s="144"/>
       <c r="AO61" s="32"/>
       <c r="AP61" s="33"/>
       <c r="AQ61" s="33"/>
@@ -6493,15 +6517,15 @@
       <c r="AE62" s="71">
         <v>22</v>
       </c>
-      <c r="AF62" s="91"/>
-      <c r="AG62" s="93"/>
+      <c r="AF62" s="121"/>
+      <c r="AG62" s="123"/>
       <c r="AH62" s="32"/>
       <c r="AI62" s="32"/>
-      <c r="AJ62" s="32"/>
-      <c r="AK62" s="26"/>
-      <c r="AL62" s="32"/>
-      <c r="AM62" s="32"/>
-      <c r="AN62" s="32"/>
+      <c r="AJ62" s="53"/>
+      <c r="AK62" s="54"/>
+      <c r="AL62" s="145"/>
+      <c r="AM62" s="144"/>
+      <c r="AN62" s="144"/>
       <c r="AO62" s="32"/>
       <c r="AP62" s="33"/>
       <c r="AQ62" s="33"/>
@@ -6608,15 +6632,15 @@
       <c r="AE63" s="71">
         <v>23</v>
       </c>
-      <c r="AF63" s="91"/>
-      <c r="AG63" s="93"/>
+      <c r="AF63" s="121"/>
+      <c r="AG63" s="123"/>
       <c r="AH63" s="32"/>
       <c r="AI63" s="32"/>
-      <c r="AJ63" s="32"/>
-      <c r="AK63" s="26"/>
-      <c r="AL63" s="32"/>
-      <c r="AM63" s="32"/>
-      <c r="AN63" s="32"/>
+      <c r="AJ63" s="53"/>
+      <c r="AK63" s="54"/>
+      <c r="AL63" s="145"/>
+      <c r="AM63" s="144"/>
+      <c r="AN63" s="144"/>
       <c r="AO63" s="32"/>
       <c r="AP63" s="33"/>
       <c r="AQ63" s="33"/>
@@ -6723,15 +6747,15 @@
       <c r="AE64" s="71">
         <v>24</v>
       </c>
-      <c r="AF64" s="91"/>
-      <c r="AG64" s="93"/>
+      <c r="AF64" s="121"/>
+      <c r="AG64" s="123"/>
       <c r="AH64" s="32"/>
       <c r="AI64" s="32"/>
-      <c r="AJ64" s="32"/>
-      <c r="AK64" s="26"/>
-      <c r="AL64" s="32"/>
-      <c r="AM64" s="32"/>
-      <c r="AN64" s="32"/>
+      <c r="AJ64" s="53"/>
+      <c r="AK64" s="54"/>
+      <c r="AL64" s="145"/>
+      <c r="AM64" s="144"/>
+      <c r="AN64" s="144"/>
       <c r="AO64" s="32"/>
       <c r="AP64" s="33"/>
       <c r="AQ64" s="33"/>
@@ -6838,15 +6862,15 @@
       <c r="AE65" s="71">
         <v>25</v>
       </c>
-      <c r="AF65" s="91"/>
-      <c r="AG65" s="93"/>
+      <c r="AF65" s="121"/>
+      <c r="AG65" s="123"/>
       <c r="AH65" s="32"/>
       <c r="AI65" s="32"/>
-      <c r="AJ65" s="32"/>
-      <c r="AK65" s="26"/>
-      <c r="AL65" s="32"/>
-      <c r="AM65" s="32"/>
-      <c r="AN65" s="32"/>
+      <c r="AJ65" s="53"/>
+      <c r="AK65" s="54"/>
+      <c r="AL65" s="145"/>
+      <c r="AM65" s="144"/>
+      <c r="AN65" s="144"/>
       <c r="AO65" s="32"/>
       <c r="AP65" s="33"/>
       <c r="AQ65" s="33"/>
@@ -6953,15 +6977,15 @@
       <c r="AE66" s="71">
         <v>26</v>
       </c>
-      <c r="AF66" s="91"/>
-      <c r="AG66" s="93"/>
+      <c r="AF66" s="121"/>
+      <c r="AG66" s="123"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
-      <c r="AJ66" s="32"/>
-      <c r="AK66" s="26"/>
-      <c r="AL66" s="32"/>
-      <c r="AM66" s="32"/>
-      <c r="AN66" s="32"/>
+      <c r="AJ66" s="53"/>
+      <c r="AK66" s="54"/>
+      <c r="AL66" s="145"/>
+      <c r="AM66" s="144"/>
+      <c r="AN66" s="144"/>
       <c r="AO66" s="32"/>
       <c r="AP66" s="33"/>
       <c r="AQ66" s="33"/>
@@ -7068,15 +7092,15 @@
       <c r="AE67" s="71">
         <v>27</v>
       </c>
-      <c r="AF67" s="91"/>
-      <c r="AG67" s="93"/>
+      <c r="AF67" s="121"/>
+      <c r="AG67" s="123"/>
       <c r="AH67" s="32"/>
       <c r="AI67" s="32"/>
-      <c r="AJ67" s="32"/>
-      <c r="AK67" s="26"/>
-      <c r="AL67" s="32"/>
-      <c r="AM67" s="32"/>
-      <c r="AN67" s="32"/>
+      <c r="AJ67" s="53"/>
+      <c r="AK67" s="54"/>
+      <c r="AL67" s="145"/>
+      <c r="AM67" s="144"/>
+      <c r="AN67" s="144"/>
       <c r="AO67" s="32"/>
       <c r="AP67" s="33"/>
       <c r="AQ67" s="33"/>
@@ -7183,15 +7207,15 @@
       <c r="AE68" s="71">
         <v>28</v>
       </c>
-      <c r="AF68" s="91"/>
-      <c r="AG68" s="93"/>
+      <c r="AF68" s="121"/>
+      <c r="AG68" s="123"/>
       <c r="AH68" s="32"/>
       <c r="AI68" s="32"/>
-      <c r="AJ68" s="32"/>
-      <c r="AK68" s="26"/>
-      <c r="AL68" s="32"/>
-      <c r="AM68" s="32"/>
-      <c r="AN68" s="32"/>
+      <c r="AJ68" s="53"/>
+      <c r="AK68" s="54"/>
+      <c r="AL68" s="145"/>
+      <c r="AM68" s="144"/>
+      <c r="AN68" s="144"/>
       <c r="AO68" s="32"/>
       <c r="AP68" s="33"/>
       <c r="AQ68" s="33"/>
@@ -7298,15 +7322,15 @@
       <c r="AE69" s="71">
         <v>29</v>
       </c>
-      <c r="AF69" s="91"/>
-      <c r="AG69" s="93"/>
+      <c r="AF69" s="121"/>
+      <c r="AG69" s="123"/>
       <c r="AH69" s="32"/>
       <c r="AI69" s="32"/>
-      <c r="AJ69" s="32"/>
-      <c r="AK69" s="26"/>
-      <c r="AL69" s="32"/>
-      <c r="AM69" s="32"/>
-      <c r="AN69" s="32"/>
+      <c r="AJ69" s="53"/>
+      <c r="AK69" s="54"/>
+      <c r="AL69" s="145"/>
+      <c r="AM69" s="144"/>
+      <c r="AN69" s="144"/>
       <c r="AO69" s="32"/>
       <c r="AP69" s="33"/>
       <c r="AQ69" s="33"/>
@@ -7413,15 +7437,15 @@
       <c r="AE70" s="71">
         <v>30</v>
       </c>
-      <c r="AF70" s="91"/>
-      <c r="AG70" s="93"/>
+      <c r="AF70" s="121"/>
+      <c r="AG70" s="123"/>
       <c r="AH70" s="32"/>
       <c r="AI70" s="32"/>
-      <c r="AJ70" s="32"/>
-      <c r="AK70" s="26"/>
-      <c r="AL70" s="32"/>
-      <c r="AM70" s="32"/>
-      <c r="AN70" s="32"/>
+      <c r="AJ70" s="53"/>
+      <c r="AK70" s="54"/>
+      <c r="AL70" s="145"/>
+      <c r="AM70" s="144"/>
+      <c r="AN70" s="144"/>
       <c r="AO70" s="32"/>
       <c r="AP70" s="33"/>
       <c r="AQ70" s="33"/>
@@ -7528,15 +7552,15 @@
       <c r="AE71" s="71">
         <v>31</v>
       </c>
-      <c r="AF71" s="91"/>
-      <c r="AG71" s="93"/>
+      <c r="AF71" s="121"/>
+      <c r="AG71" s="123"/>
       <c r="AH71" s="32"/>
       <c r="AI71" s="32"/>
-      <c r="AJ71" s="32"/>
-      <c r="AK71" s="26"/>
-      <c r="AL71" s="32"/>
-      <c r="AM71" s="32"/>
-      <c r="AN71" s="32"/>
+      <c r="AJ71" s="53"/>
+      <c r="AK71" s="54"/>
+      <c r="AL71" s="145"/>
+      <c r="AM71" s="144"/>
+      <c r="AN71" s="144"/>
       <c r="AO71" s="32"/>
       <c r="AP71" s="33"/>
       <c r="AQ71" s="33"/>
@@ -7643,15 +7667,15 @@
       <c r="AE72" s="72">
         <v>32</v>
       </c>
-      <c r="AF72" s="92"/>
-      <c r="AG72" s="94"/>
+      <c r="AF72" s="122"/>
+      <c r="AG72" s="124"/>
       <c r="AH72" s="32"/>
       <c r="AI72" s="32"/>
-      <c r="AJ72" s="32"/>
-      <c r="AK72" s="32"/>
-      <c r="AL72" s="32"/>
-      <c r="AM72" s="32"/>
-      <c r="AN72" s="32"/>
+      <c r="AJ72" s="144"/>
+      <c r="AK72" s="144"/>
+      <c r="AL72" s="144"/>
+      <c r="AM72" s="144"/>
+      <c r="AN72" s="144"/>
       <c r="AO72" s="32"/>
       <c r="AP72" s="3"/>
     </row>
@@ -7675,11 +7699,11 @@
       <c r="AG73" s="33"/>
       <c r="AH73" s="32"/>
       <c r="AI73" s="32"/>
-      <c r="AJ73" s="32"/>
-      <c r="AK73" s="32"/>
-      <c r="AL73" s="32"/>
-      <c r="AM73" s="32"/>
-      <c r="AN73" s="32"/>
+      <c r="AJ73" s="144"/>
+      <c r="AK73" s="144"/>
+      <c r="AL73" s="144"/>
+      <c r="AM73" s="144"/>
+      <c r="AN73" s="144"/>
       <c r="AO73" s="32"/>
       <c r="AP73" s="3"/>
     </row>
@@ -7703,11 +7727,11 @@
       <c r="AG74" s="33"/>
       <c r="AH74" s="32"/>
       <c r="AI74" s="32"/>
-      <c r="AJ74" s="32"/>
-      <c r="AK74" s="32"/>
-      <c r="AL74" s="32"/>
-      <c r="AM74" s="32"/>
-      <c r="AN74" s="32"/>
+      <c r="AJ74" s="144"/>
+      <c r="AK74" s="144"/>
+      <c r="AL74" s="144"/>
+      <c r="AM74" s="144"/>
+      <c r="AN74" s="144"/>
       <c r="AO74" s="32"/>
       <c r="AP74" s="3"/>
     </row>
@@ -7731,11 +7755,11 @@
       <c r="AG75" s="33"/>
       <c r="AH75" s="32"/>
       <c r="AI75" s="32"/>
-      <c r="AJ75" s="32"/>
-      <c r="AK75" s="32"/>
-      <c r="AL75" s="32"/>
-      <c r="AM75" s="32"/>
-      <c r="AN75" s="32"/>
+      <c r="AJ75" s="144"/>
+      <c r="AK75" s="144"/>
+      <c r="AL75" s="144"/>
+      <c r="AM75" s="144"/>
+      <c r="AN75" s="144"/>
       <c r="AO75" s="32"/>
       <c r="AP75" s="3"/>
     </row>
@@ -7759,11 +7783,11 @@
       <c r="AG76" s="33"/>
       <c r="AH76" s="32"/>
       <c r="AI76" s="32"/>
-      <c r="AJ76" s="32"/>
-      <c r="AK76" s="32"/>
-      <c r="AL76" s="32"/>
-      <c r="AM76" s="32"/>
-      <c r="AN76" s="32"/>
+      <c r="AJ76" s="144"/>
+      <c r="AK76" s="144"/>
+      <c r="AL76" s="144"/>
+      <c r="AM76" s="144"/>
+      <c r="AN76" s="144"/>
       <c r="AO76" s="32"/>
       <c r="AP76" s="3"/>
     </row>
@@ -7795,11 +7819,11 @@
       <c r="AG77" s="33"/>
       <c r="AH77" s="32"/>
       <c r="AI77" s="32"/>
-      <c r="AJ77" s="32"/>
-      <c r="AK77" s="32"/>
-      <c r="AL77" s="32"/>
-      <c r="AM77" s="32"/>
-      <c r="AN77" s="32"/>
+      <c r="AJ77" s="144"/>
+      <c r="AK77" s="144"/>
+      <c r="AL77" s="144"/>
+      <c r="AM77" s="144"/>
+      <c r="AN77" s="144"/>
       <c r="AO77" s="32"/>
       <c r="AP77" s="3"/>
     </row>
@@ -7831,11 +7855,11 @@
       <c r="AG78" s="33"/>
       <c r="AH78" s="32"/>
       <c r="AI78" s="32"/>
-      <c r="AJ78" s="32"/>
-      <c r="AK78" s="32"/>
-      <c r="AL78" s="32"/>
-      <c r="AM78" s="32"/>
-      <c r="AN78" s="32"/>
+      <c r="AJ78" s="144"/>
+      <c r="AK78" s="144"/>
+      <c r="AL78" s="144"/>
+      <c r="AM78" s="144"/>
+      <c r="AN78" s="144"/>
       <c r="AO78" s="32"/>
       <c r="AP78" s="3"/>
     </row>
@@ -8397,6 +8421,481 @@
     <sortCondition descending="1" ref="AX39:AX71"/>
   </sortState>
   <mergeCells count="499">
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AF39:AG40"/>
+    <mergeCell ref="AF53:AF72"/>
+    <mergeCell ref="AG53:AG72"/>
+    <mergeCell ref="AF41:AF52"/>
+    <mergeCell ref="AG41:AG52"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B39:O39"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC22:AD22"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AD5"/>
     <mergeCell ref="Q4:AD4"/>
@@ -8421,484 +8920,21 @@
     <mergeCell ref="AC28:AD28"/>
     <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="B39:O39"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AF39:AG40"/>
-    <mergeCell ref="AF53:AF72"/>
-    <mergeCell ref="AG53:AG72"/>
-    <mergeCell ref="AF41:AF52"/>
-    <mergeCell ref="AG41:AG52"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B6:C37">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:E37">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -8910,7 +8946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:E37">
+  <conditionalFormatting sqref="F6:G37">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -8922,7 +8958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G37">
+  <conditionalFormatting sqref="H6:I37">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -8934,7 +8970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I37">
+  <conditionalFormatting sqref="J6:K37">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -8946,7 +8982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:K37">
+  <conditionalFormatting sqref="L6:M37">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -8958,7 +8994,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:M37">
+  <conditionalFormatting sqref="N6:O37">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -8970,8 +9006,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:O37">
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="AO75:AO78">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8982,7 +9018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO75:AO78">
+  <conditionalFormatting sqref="C41:C72">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -8994,7 +9030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:C72">
+  <conditionalFormatting sqref="E41:E72">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -9006,7 +9042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E72">
+  <conditionalFormatting sqref="G41:G72">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -9018,7 +9054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G72">
+  <conditionalFormatting sqref="I41:I72">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -9030,7 +9066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I72">
+  <conditionalFormatting sqref="K41:K72">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -9042,7 +9078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:K72">
+  <conditionalFormatting sqref="M41:M72">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -9054,7 +9090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M41:M72">
+  <conditionalFormatting sqref="O41:O72">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -9066,8 +9102,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O41:O72">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="Q6:R37">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9078,7 +9114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:R37">
+  <conditionalFormatting sqref="S6:T37">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -9090,7 +9126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6:T37">
+  <conditionalFormatting sqref="U6:V37">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -9102,7 +9138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U6:V37">
+  <conditionalFormatting sqref="W6:X37">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -9114,7 +9150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W6:X37">
+  <conditionalFormatting sqref="Y6:Z37">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -9126,7 +9162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Z37">
+  <conditionalFormatting sqref="AA6:AB37">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -9138,7 +9174,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA6:AB37">
+  <conditionalFormatting sqref="AC6:AD37">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -9150,8 +9186,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC6:AD37">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="R41:R72">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9162,7 +9198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R41:R72">
+  <conditionalFormatting sqref="T41:T72">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9174,7 +9210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T41:T72">
+  <conditionalFormatting sqref="V41:V72">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9186,7 +9222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V41:V72">
+  <conditionalFormatting sqref="X41:X72">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9198,7 +9234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X41:X72">
+  <conditionalFormatting sqref="Z41:Z72">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9210,7 +9246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z41:Z72">
+  <conditionalFormatting sqref="AB41:AB72">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9222,20 +9258,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB41:AB72">
+  <conditionalFormatting sqref="AD41:AD72">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD41:AD72">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9258,7 +9282,7 @@
   </sheetPr>
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
@@ -9312,67 +9336,67 @@
       <c r="A4" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="141"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="131"/>
       <c r="P4" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="138" t="s">
+      <c r="Q4" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="88"/>
+      <c r="R4" s="118"/>
     </row>
     <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118" t="s">
+      <c r="G5" s="85"/>
+      <c r="H5" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118" t="s">
+      <c r="I5" s="85"/>
+      <c r="J5" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118" t="s">
+      <c r="K5" s="85"/>
+      <c r="L5" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="119"/>
-      <c r="N5" s="115" t="s">
+      <c r="M5" s="104"/>
+      <c r="N5" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="116"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="90"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="120"/>
     </row>
     <row r="6" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73">
@@ -9423,11 +9447,11 @@
       <c r="P6" s="75">
         <v>1</v>
       </c>
-      <c r="Q6" s="129">
+      <c r="Q6" s="133">
         <f>SUM(O6,O8:O18)</f>
         <v>0.77320874479754464</v>
       </c>
-      <c r="R6" s="131" t="s">
+      <c r="R6" s="135" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9480,8 +9504,8 @@
       <c r="P7" s="76">
         <v>2</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="132"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="136"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="74">
@@ -9532,8 +9556,8 @@
       <c r="P8" s="76">
         <v>3</v>
       </c>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="132"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="136"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="74">
@@ -9584,8 +9608,8 @@
       <c r="P9" s="76">
         <v>4</v>
       </c>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="132"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="136"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="74">
@@ -9636,8 +9660,8 @@
       <c r="P10" s="76">
         <v>5</v>
       </c>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="132"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="136"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="74">
@@ -9688,8 +9712,8 @@
       <c r="P11" s="76">
         <v>6</v>
       </c>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="132"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="136"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="74">
@@ -9740,8 +9764,8 @@
       <c r="P12" s="76">
         <v>7</v>
       </c>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="132"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="136"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="74">
@@ -9792,8 +9816,8 @@
       <c r="P13" s="76">
         <v>8</v>
       </c>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="132"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="136"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="74">
@@ -9844,8 +9868,8 @@
       <c r="P14" s="76">
         <v>9</v>
       </c>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="132"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="136"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="74">
@@ -9896,8 +9920,8 @@
       <c r="P15" s="76">
         <v>10</v>
       </c>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="132"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="74">
@@ -9948,8 +9972,8 @@
       <c r="P16" s="76">
         <v>11</v>
       </c>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="132"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="136"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="74">
@@ -10000,8 +10024,8 @@
       <c r="P17" s="76">
         <v>12</v>
       </c>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="132"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="83">
@@ -10052,11 +10076,11 @@
       <c r="P18" s="77">
         <v>13</v>
       </c>
-      <c r="Q18" s="133">
+      <c r="Q18" s="137">
         <f>1-Q6</f>
         <v>0.22679125520245536</v>
       </c>
-      <c r="R18" s="135" t="s">
+      <c r="R18" s="139" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10109,8 +10133,8 @@
       <c r="P19" s="77">
         <v>14</v>
       </c>
-      <c r="Q19" s="133"/>
-      <c r="R19" s="136"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="140"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="83">
@@ -10161,8 +10185,8 @@
       <c r="P20" s="77">
         <v>15</v>
       </c>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="136"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="140"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="83">
@@ -10213,8 +10237,8 @@
       <c r="P21" s="77">
         <v>16</v>
       </c>
-      <c r="Q21" s="133"/>
-      <c r="R21" s="136"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="140"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="83">
@@ -10265,8 +10289,8 @@
       <c r="P22" s="77">
         <v>17</v>
       </c>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="136"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="140"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="83">
@@ -10317,8 +10341,8 @@
       <c r="P23" s="77">
         <v>18</v>
       </c>
-      <c r="Q23" s="133"/>
-      <c r="R23" s="136"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="140"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="83">
@@ -10369,8 +10393,8 @@
       <c r="P24" s="77">
         <v>19</v>
       </c>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="136"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="140"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="83">
@@ -10421,8 +10445,8 @@
       <c r="P25" s="77">
         <v>20</v>
       </c>
-      <c r="Q25" s="133"/>
-      <c r="R25" s="136"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="140"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="83">
@@ -10473,8 +10497,8 @@
       <c r="P26" s="77">
         <v>21</v>
       </c>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="136"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="140"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="83">
@@ -10525,8 +10549,8 @@
       <c r="P27" s="77">
         <v>22</v>
       </c>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="136"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="140"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="83">
@@ -10577,8 +10601,8 @@
       <c r="P28" s="77">
         <v>23</v>
       </c>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="136"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="140"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="83">
@@ -10629,8 +10653,8 @@
       <c r="P29" s="77">
         <v>24</v>
       </c>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="136"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="140"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="83">
@@ -10681,8 +10705,8 @@
       <c r="P30" s="77">
         <v>25</v>
       </c>
-      <c r="Q30" s="133"/>
-      <c r="R30" s="136"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="140"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="83">
@@ -10733,8 +10757,8 @@
       <c r="P31" s="77">
         <v>26</v>
       </c>
-      <c r="Q31" s="133"/>
-      <c r="R31" s="136"/>
+      <c r="Q31" s="137"/>
+      <c r="R31" s="140"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="83">
@@ -10785,8 +10809,8 @@
       <c r="P32" s="77">
         <v>27</v>
       </c>
-      <c r="Q32" s="133"/>
-      <c r="R32" s="136"/>
+      <c r="Q32" s="137"/>
+      <c r="R32" s="140"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="83">
@@ -10837,8 +10861,8 @@
       <c r="P33" s="77">
         <v>28</v>
       </c>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="136"/>
+      <c r="Q33" s="137"/>
+      <c r="R33" s="140"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="83">
@@ -10889,8 +10913,8 @@
       <c r="P34" s="77">
         <v>29</v>
       </c>
-      <c r="Q34" s="133"/>
-      <c r="R34" s="136"/>
+      <c r="Q34" s="137"/>
+      <c r="R34" s="140"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="83">
@@ -10941,8 +10965,8 @@
       <c r="P35" s="77">
         <v>30</v>
       </c>
-      <c r="Q35" s="133"/>
-      <c r="R35" s="136"/>
+      <c r="Q35" s="137"/>
+      <c r="R35" s="140"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="83">
@@ -10993,8 +11017,8 @@
       <c r="P36" s="77">
         <v>31</v>
       </c>
-      <c r="Q36" s="133"/>
-      <c r="R36" s="136"/>
+      <c r="Q36" s="137"/>
+      <c r="R36" s="140"/>
     </row>
     <row r="37" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="84">
@@ -11045,74 +11069,74 @@
       <c r="P37" s="78">
         <v>32</v>
       </c>
-      <c r="Q37" s="134"/>
-      <c r="R37" s="137"/>
+      <c r="Q37" s="138"/>
+      <c r="R37" s="141"/>
     </row>
     <row r="38" spans="1:18" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="139" t="s">
+      <c r="B38" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="140"/>
-      <c r="K38" s="140"/>
-      <c r="L38" s="140"/>
-      <c r="M38" s="140"/>
-      <c r="N38" s="140"/>
-      <c r="O38" s="141"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="131"/>
       <c r="P38" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="Q38" s="138" t="s">
+      <c r="Q38" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="R38" s="88"/>
+      <c r="R38" s="118"/>
     </row>
     <row r="39" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118" t="s">
+      <c r="C39" s="85"/>
+      <c r="D39" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118" t="s">
+      <c r="E39" s="85"/>
+      <c r="F39" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118" t="s">
+      <c r="G39" s="85"/>
+      <c r="H39" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118" t="s">
+      <c r="I39" s="85"/>
+      <c r="J39" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118" t="s">
+      <c r="K39" s="85"/>
+      <c r="L39" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="M39" s="118"/>
-      <c r="N39" s="118" t="s">
+      <c r="M39" s="85"/>
+      <c r="N39" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="O39" s="116"/>
+      <c r="O39" s="86"/>
       <c r="P39" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="90"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="120"/>
     </row>
     <row r="40" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A40" s="73">
@@ -11163,11 +11187,11 @@
       <c r="P40" s="75">
         <v>1</v>
       </c>
-      <c r="Q40" s="129">
+      <c r="Q40" s="133">
         <f>SUM(O40:O43,O45:O52)</f>
         <v>0.83591476849966406</v>
       </c>
-      <c r="R40" s="131" t="s">
+      <c r="R40" s="135" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11220,8 +11244,8 @@
       <c r="P41" s="76">
         <v>2</v>
       </c>
-      <c r="Q41" s="130"/>
-      <c r="R41" s="132"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="136"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="74">
@@ -11272,8 +11296,8 @@
       <c r="P42" s="76">
         <v>3</v>
       </c>
-      <c r="Q42" s="130"/>
-      <c r="R42" s="132"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="136"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="74">
@@ -11324,8 +11348,8 @@
       <c r="P43" s="76">
         <v>4</v>
       </c>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="132"/>
+      <c r="Q43" s="134"/>
+      <c r="R43" s="136"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="74">
@@ -11376,8 +11400,8 @@
       <c r="P44" s="76">
         <v>5</v>
       </c>
-      <c r="Q44" s="130"/>
-      <c r="R44" s="132"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="136"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="74">
@@ -11428,8 +11452,8 @@
       <c r="P45" s="76">
         <v>6</v>
       </c>
-      <c r="Q45" s="130"/>
-      <c r="R45" s="132"/>
+      <c r="Q45" s="134"/>
+      <c r="R45" s="136"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="74">
@@ -11480,8 +11504,8 @@
       <c r="P46" s="76">
         <v>7</v>
       </c>
-      <c r="Q46" s="130"/>
-      <c r="R46" s="132"/>
+      <c r="Q46" s="134"/>
+      <c r="R46" s="136"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="74">
@@ -11532,8 +11556,8 @@
       <c r="P47" s="76">
         <v>8</v>
       </c>
-      <c r="Q47" s="130"/>
-      <c r="R47" s="132"/>
+      <c r="Q47" s="134"/>
+      <c r="R47" s="136"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="74">
@@ -11584,8 +11608,8 @@
       <c r="P48" s="76">
         <v>9</v>
       </c>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="132"/>
+      <c r="Q48" s="134"/>
+      <c r="R48" s="136"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="74">
@@ -11636,8 +11660,8 @@
       <c r="P49" s="76">
         <v>10</v>
       </c>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="132"/>
+      <c r="Q49" s="134"/>
+      <c r="R49" s="136"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="74">
@@ -11688,8 +11712,8 @@
       <c r="P50" s="76">
         <v>11</v>
       </c>
-      <c r="Q50" s="130"/>
-      <c r="R50" s="132"/>
+      <c r="Q50" s="134"/>
+      <c r="R50" s="136"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="74">
@@ -11740,8 +11764,8 @@
       <c r="P51" s="76">
         <v>12</v>
       </c>
-      <c r="Q51" s="130"/>
-      <c r="R51" s="132"/>
+      <c r="Q51" s="134"/>
+      <c r="R51" s="136"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="83">
@@ -11792,11 +11816,11 @@
       <c r="P52" s="77">
         <v>13</v>
       </c>
-      <c r="Q52" s="133">
+      <c r="Q52" s="137">
         <f>1-Q40</f>
         <v>0.16408523150033594</v>
       </c>
-      <c r="R52" s="135" t="s">
+      <c r="R52" s="139" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11849,8 +11873,8 @@
       <c r="P53" s="77">
         <v>14</v>
       </c>
-      <c r="Q53" s="133"/>
-      <c r="R53" s="136"/>
+      <c r="Q53" s="137"/>
+      <c r="R53" s="140"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="83">
@@ -11901,8 +11925,8 @@
       <c r="P54" s="77">
         <v>15</v>
       </c>
-      <c r="Q54" s="133"/>
-      <c r="R54" s="136"/>
+      <c r="Q54" s="137"/>
+      <c r="R54" s="140"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="83">
@@ -11953,8 +11977,8 @@
       <c r="P55" s="77">
         <v>16</v>
       </c>
-      <c r="Q55" s="133"/>
-      <c r="R55" s="136"/>
+      <c r="Q55" s="137"/>
+      <c r="R55" s="140"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="83">
@@ -12005,8 +12029,8 @@
       <c r="P56" s="77">
         <v>17</v>
       </c>
-      <c r="Q56" s="133"/>
-      <c r="R56" s="136"/>
+      <c r="Q56" s="137"/>
+      <c r="R56" s="140"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="83">
@@ -12057,8 +12081,8 @@
       <c r="P57" s="77">
         <v>18</v>
       </c>
-      <c r="Q57" s="133"/>
-      <c r="R57" s="136"/>
+      <c r="Q57" s="137"/>
+      <c r="R57" s="140"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="83">
@@ -12109,8 +12133,8 @@
       <c r="P58" s="77">
         <v>19</v>
       </c>
-      <c r="Q58" s="133"/>
-      <c r="R58" s="136"/>
+      <c r="Q58" s="137"/>
+      <c r="R58" s="140"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="83">
@@ -12161,8 +12185,8 @@
       <c r="P59" s="77">
         <v>20</v>
       </c>
-      <c r="Q59" s="133"/>
-      <c r="R59" s="136"/>
+      <c r="Q59" s="137"/>
+      <c r="R59" s="140"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="83">
@@ -12213,8 +12237,8 @@
       <c r="P60" s="77">
         <v>21</v>
       </c>
-      <c r="Q60" s="133"/>
-      <c r="R60" s="136"/>
+      <c r="Q60" s="137"/>
+      <c r="R60" s="140"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="83">
@@ -12265,8 +12289,8 @@
       <c r="P61" s="77">
         <v>22</v>
       </c>
-      <c r="Q61" s="133"/>
-      <c r="R61" s="136"/>
+      <c r="Q61" s="137"/>
+      <c r="R61" s="140"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="83">
@@ -12317,8 +12341,8 @@
       <c r="P62" s="77">
         <v>23</v>
       </c>
-      <c r="Q62" s="133"/>
-      <c r="R62" s="136"/>
+      <c r="Q62" s="137"/>
+      <c r="R62" s="140"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="83">
@@ -12369,8 +12393,8 @@
       <c r="P63" s="77">
         <v>24</v>
       </c>
-      <c r="Q63" s="133"/>
-      <c r="R63" s="136"/>
+      <c r="Q63" s="137"/>
+      <c r="R63" s="140"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="83">
@@ -12421,8 +12445,8 @@
       <c r="P64" s="77">
         <v>25</v>
       </c>
-      <c r="Q64" s="133"/>
-      <c r="R64" s="136"/>
+      <c r="Q64" s="137"/>
+      <c r="R64" s="140"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="83">
@@ -12473,8 +12497,8 @@
       <c r="P65" s="77">
         <v>26</v>
       </c>
-      <c r="Q65" s="133"/>
-      <c r="R65" s="136"/>
+      <c r="Q65" s="137"/>
+      <c r="R65" s="140"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="83">
@@ -12525,8 +12549,8 @@
       <c r="P66" s="77">
         <v>27</v>
       </c>
-      <c r="Q66" s="133"/>
-      <c r="R66" s="136"/>
+      <c r="Q66" s="137"/>
+      <c r="R66" s="140"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="83">
@@ -12577,8 +12601,8 @@
       <c r="P67" s="77">
         <v>28</v>
       </c>
-      <c r="Q67" s="133"/>
-      <c r="R67" s="136"/>
+      <c r="Q67" s="137"/>
+      <c r="R67" s="140"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="83">
@@ -12629,8 +12653,8 @@
       <c r="P68" s="77">
         <v>29</v>
       </c>
-      <c r="Q68" s="133"/>
-      <c r="R68" s="136"/>
+      <c r="Q68" s="137"/>
+      <c r="R68" s="140"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="83">
@@ -12681,8 +12705,8 @@
       <c r="P69" s="77">
         <v>30</v>
       </c>
-      <c r="Q69" s="133"/>
-      <c r="R69" s="136"/>
+      <c r="Q69" s="137"/>
+      <c r="R69" s="140"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="83">
@@ -12733,8 +12757,8 @@
       <c r="P70" s="77">
         <v>31</v>
       </c>
-      <c r="Q70" s="133"/>
-      <c r="R70" s="136"/>
+      <c r="Q70" s="137"/>
+      <c r="R70" s="140"/>
     </row>
     <row r="71" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="84">
@@ -12785,11 +12809,21 @@
       <c r="P71" s="78">
         <v>32</v>
       </c>
-      <c r="Q71" s="134"/>
-      <c r="R71" s="137"/>
+      <c r="Q71" s="138"/>
+      <c r="R71" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q40:Q51"/>
+    <mergeCell ref="R40:R51"/>
+    <mergeCell ref="Q52:Q71"/>
+    <mergeCell ref="R52:R71"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="Q6:Q17"/>
+    <mergeCell ref="R6:R17"/>
+    <mergeCell ref="Q18:Q37"/>
+    <mergeCell ref="R18:R37"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="B4:O4"/>
     <mergeCell ref="B38:O38"/>
@@ -12806,16 +12840,6 @@
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="J39:K39"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="Q6:Q17"/>
-    <mergeCell ref="R6:R17"/>
-    <mergeCell ref="Q18:Q37"/>
-    <mergeCell ref="R18:R37"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="Q40:Q51"/>
-    <mergeCell ref="R40:R51"/>
-    <mergeCell ref="Q52:Q71"/>
-    <mergeCell ref="R52:R71"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C37">
     <cfRule type="colorScale" priority="14">
